--- a/LiteratureReviews/SyntheticGraphAndTimeSeriesQualityMetrics/Evaluation_SyntheticDataMetrics.xlsx
+++ b/LiteratureReviews/SyntheticGraphAndTimeSeriesQualityMetrics/Evaluation_SyntheticDataMetrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitaetstgallen-my.sharepoint.com/personal/fabian_karst_unisg_ch/Documents/03_PhD/Research/3_ArtificialDatabaseCombination/InformationSystemResearch2024/Appendix/LiteratureReviews/SyntheticGraphAndTimeSeriesQualityMetrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="337" documentId="8_{F2B5293E-022D-4BDE-849E-B6D4041C9643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22B6C5E7-9DEA-9844-A1A3-66E2A3DD11D3}"/>
+  <xr:revisionPtr revIDLastSave="371" documentId="8_{F2B5293E-022D-4BDE-849E-B6D4041C9643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53EE1803-A7A1-4044-BDBB-101C52C4D7C5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3400" yWindow="-20660" windowWidth="30240" windowHeight="17480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId5"/>
+    <pivotCache cacheId="29" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2422" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="429">
   <si>
     <t>Metric</t>
   </si>
@@ -1323,6 +1323,12 @@
   </si>
   <si>
     <t>Assignment</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
   </si>
 </sst>
 </file>
@@ -1492,7 +1498,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Fabian Karst" refreshedDate="46035.62697060185" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="327" xr:uid="{35C52BD5-023A-43F5-B179-664B6AAB2F05}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Fabian Karst" refreshedDate="46035.636247453702" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="327" xr:uid="{35C52BD5-023A-43F5-B179-664B6AAB2F05}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -1518,8 +1524,8 @@
     </cacheField>
     <cacheField name="Temporal" numFmtId="0">
       <sharedItems containsBlank="1" count="3">
+        <b v="1"/>
         <b v="0"/>
-        <b v="1"/>
         <m u="1"/>
       </sharedItems>
     </cacheField>
@@ -1687,7 +1693,7 @@
         <s v="Validity"/>
         <s v="Generalization"/>
         <s v="Privacy"/>
-        <s v="Fairness"/>
+        <s v="Fairness" u="1"/>
         <s v="Representativeness" u="1"/>
       </sharedItems>
     </cacheField>
@@ -1723,7 +1729,7 @@
     <s v="Spatiotemporal multi-graph convolutional networks with synthetic data for traffic volume forecasting"/>
     <s v="ZhuEtAl2022"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <s v="TSTR RMSE"/>
@@ -1736,7 +1742,7 @@
     <s v="GraphRNN: Generating Realistic Graphs with Deep Auto-regressive Models"/>
     <s v="YouEtAl2018"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="2"/>
     <s v="Degree"/>
@@ -1749,7 +1755,7 @@
     <s v="GraphRNN: Generating Realistic Graphs with Deep Auto-regressive Models"/>
     <s v="YouEtAl2018"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="3"/>
     <s v="Global Clustering"/>
@@ -1762,7 +1768,7 @@
     <s v="GraphRNN: Generating Realistic Graphs with Deep Auto-regressive Models"/>
     <s v="YouEtAl2018"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="4"/>
     <s v="Orbit"/>
@@ -1775,7 +1781,7 @@
     <s v="CartaGenie: Context-Driven Synthesis of City-Scale Mobile Network Traffic Snapshots"/>
     <s v="XuEtAl2022"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="5"/>
     <s v="Peak Signal-To-Noise Ratio"/>
@@ -1788,7 +1794,7 @@
     <s v="CartaGenie: Context-Driven Synthesis of City-Scale Mobile Network Traffic Snapshots"/>
     <s v="XuEtAl2022"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="6"/>
     <s v="Structural Similarity Index Metric"/>
@@ -1801,8 +1807,8 @@
     <s v="Invertible Neural Networks for Graph Prediction"/>
     <s v="XuEtAl2022"/>
     <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="7"/>
     <s v="Radial Kernel"/>
     <x v="2"/>
@@ -1814,7 +1820,7 @@
     <s v="Invertible Neural Networks for Graph Prediction"/>
     <s v="XuEtAl2022"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="8"/>
     <s v="Energy Statistic"/>
@@ -1879,8 +1885,8 @@
     <s v="Improving the level of autism discrimination with augmented data by GraphRNN"/>
     <s v="SunEtAl2022"/>
     <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="9"/>
     <s v="Training Time"/>
     <x v="1"/>
@@ -1892,7 +1898,7 @@
     <s v="GraphVAE: Towards Generation of Small Graphs Using Variational Autoencoders"/>
     <s v="SimonovskyEtAl2018"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="10"/>
     <s v="Valid"/>
@@ -1905,7 +1911,7 @@
     <s v="GraphVAE: Towards Generation of Small Graphs Using Variational Autoencoders"/>
     <s v="SimonovskyEtAl2019"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="11"/>
     <s v="Accurate"/>
@@ -1918,7 +1924,7 @@
     <s v="GraphVAE: Towards Generation of Small Graphs Using Variational Autoencoders"/>
     <s v="SimonovskyEtAl2020"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="12"/>
     <s v="Unique"/>
@@ -1931,7 +1937,7 @@
     <s v="GraphVAE: Towards Generation of Small Graphs Using Variational Autoencoders"/>
     <s v="SimonovskyEtAl2021"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="13"/>
     <s v="Novel"/>
@@ -1970,7 +1976,7 @@
     <s v="Framework to generate hypergraphs with community structure"/>
     <s v="RuggEtAl2024"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="14"/>
     <s v="Subhypergraph Centrality"/>
@@ -1983,7 +1989,7 @@
     <s v="Framework to generate hypergraphs with community structure"/>
     <s v="RuggEtAl2024"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="14"/>
     <s v="Eigenvector Centrality"/>
@@ -1996,8 +2002,8 @@
     <s v="Assessing Deep Generative Models on Time Series Network Data"/>
     <s v="NaveedEtAl2022"/>
     <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="15"/>
     <s v="Attribute"/>
     <x v="3"/>
@@ -2010,7 +2016,7 @@
     <s v="NaveedEtAl2023"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="16"/>
     <s v="KL Divergence"/>
     <x v="4"/>
@@ -2022,7 +2028,7 @@
     <s v="Assessing Deep Generative Models on Time Series Network Data"/>
     <s v="NaveedEtAl2024"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <s v="TSTR Accuracy"/>
@@ -2100,7 +2106,7 @@
     <s v="Efficient graph generation with graph recurrent attention networks"/>
     <s v="LiaoEtAl2019"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="2"/>
     <s v="Degree"/>
@@ -2113,7 +2119,7 @@
     <s v="Efficient graph generation with graph recurrent attention networks"/>
     <s v="LiaoEtAl2019"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="3"/>
     <s v="Global Clustering"/>
@@ -2126,7 +2132,7 @@
     <s v="Efficient graph generation with graph recurrent attention networks"/>
     <s v="LiaoEtAl2019"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="4"/>
     <s v="Orbit"/>
@@ -2139,7 +2145,7 @@
     <s v="Efficient graph generation with graph recurrent attention networks"/>
     <s v="LiaoEtAl2019"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="18"/>
     <s v="Spectrum of Graph Laplacian"/>
@@ -2152,8 +2158,8 @@
     <s v="Subgraph generation applied in GraphSAGE deal with imbalanced node classification"/>
     <s v="HuangEtAl2024"/>
     <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="19"/>
     <s v="tSNE"/>
     <x v="0"/>
@@ -2204,7 +2210,7 @@
     <s v="Scalable Deep Generative Modeling for Sparse Graphs"/>
     <s v="DaiEtAl2020"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="2"/>
     <s v="Degree"/>
@@ -2217,7 +2223,7 @@
     <s v="Scalable Deep Generative Modeling for Sparse Graphs"/>
     <s v="DaiEtAl2020"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="3"/>
     <s v="Global Clustering"/>
@@ -2230,7 +2236,7 @@
     <s v="Scalable Deep Generative Modeling for Sparse Graphs"/>
     <s v="DaiEtAl2020"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="4"/>
     <s v="Orbit"/>
@@ -2243,7 +2249,7 @@
     <s v="Scalable Deep Generative Modeling for Sparse Graphs"/>
     <s v="DaiEtAl2020"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="18"/>
     <s v="Spectrum of Graph Laplacian"/>
@@ -2386,8 +2392,8 @@
     <s v="Assessing the Quality of Differentially Private Synthetic Data for Intrusion Detection"/>
     <s v="AlAminEtAl2023"/>
     <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="22"/>
     <s v="Membership Inference Attack"/>
     <x v="1"/>
@@ -2477,7 +2483,7 @@
     <s v="A Data-Driven Graph Generative Model for Temporal Interaction Networks"/>
     <s v="ZhouEtAl2020"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <s v="TSTR Recall"/>
@@ -2490,7 +2496,7 @@
     <s v="A Data-Driven Graph Generative Model for Temporal Interaction Networks"/>
     <s v="ZhouEtAl2020"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <s v="TSTR Accuracy"/>
@@ -2568,7 +2574,7 @@
     <s v="DYMOND: DYnamic MOtif-NoDes Network Generative Model"/>
     <s v="ZenoEtAl2021"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="31"/>
     <s v="Activity Rate"/>
@@ -2724,7 +2730,7 @@
     <s v="Temporal Graph Generative Models: An empirical study"/>
     <s v="SouidEtAl2024"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <s v="TSTR AUC"/>
@@ -2737,8 +2743,8 @@
     <s v="Temporal Graph Generative Models: An empirical study"/>
     <s v="SouidEtAl2024"/>
     <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="32"/>
     <s v="temporal correlation"/>
     <x v="1"/>
@@ -2750,8 +2756,8 @@
     <s v="Temporal Graph Generative Models: An empirical study"/>
     <s v="SouidEtAl2024"/>
     <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="33"/>
     <s v="temporal closeness difference"/>
     <x v="1"/>
@@ -2763,8 +2769,8 @@
     <s v="Temporal Graph Generative Models: An empirical study"/>
     <s v="SouidEtAl2024"/>
     <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="34"/>
     <s v="termporal cluster coefficient difference"/>
     <x v="1"/>
@@ -2777,7 +2783,7 @@
     <s v="SouidEtAl2024"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="35"/>
     <s v="Nearest Neighbour Distance Ratio"/>
     <x v="1"/>
@@ -2790,7 +2796,7 @@
     <s v="SivaroopanEtAl2023"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="36"/>
     <s v="Frechet Inception Distance"/>
     <x v="4"/>
@@ -2802,7 +2808,7 @@
     <s v="SyNIG: Synthetic Network Traffic Generation through Time Series Imaging"/>
     <s v="SivaroopanEtAl2023"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="17"/>
     <s v="TMTR Accuracy"/>
@@ -2815,7 +2821,7 @@
     <s v="Multivariate Time Series Forecasting With GARCH Models on Graphs"/>
     <s v="HongEtAl2023"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <s v="TSTR MAE"/>
@@ -2828,7 +2834,7 @@
     <s v="Multivariate Time Series Forecasting With GARCH Models on Graphs"/>
     <s v="HongEtAl2023"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <s v="TSTR rNMSE"/>
@@ -2841,7 +2847,7 @@
     <s v="Generating Mobility Trajectories with Retained Data Utility"/>
     <s v="CaoEtAl2021"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <s v="TSTR Precision"/>
@@ -2854,7 +2860,7 @@
     <s v="Generating Mobility Trajectories with Retained Data Utility"/>
     <s v="CaoEtAl2021"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <s v="TSTR Recall"/>
@@ -2880,8 +2886,8 @@
     <s v="Sequential Models in the Synthetic Data Vault"/>
     <s v="ZhangEtAl2022"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="38"/>
     <s v="Sequence Length"/>
     <x v="10"/>
@@ -2932,7 +2938,7 @@
     <s v="Sequential Models in the Synthetic Data Vault"/>
     <s v="ZhangEtAl2022"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="42"/>
     <s v="Inter-Row Difference"/>
@@ -2997,8 +3003,8 @@
     <s v="STAN: Synthetic Network Traffic Generation with Generative Neural Models"/>
     <s v="XuEtAl2021"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR F1"/>
     <x v="1"/>
@@ -3010,8 +3016,8 @@
     <s v="STAN: Synthetic Network Traffic Generation with Generative Neural Models"/>
     <s v="XuEtAl2021"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR MSE"/>
     <x v="1"/>
@@ -3023,8 +3029,8 @@
     <s v="Synthetic Data Generation using Resilient Sample Convolution and Interactive Learning Approach"/>
     <s v="UrsEtAl2022"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="17"/>
     <s v="TMTR MSE"/>
     <x v="1"/>
@@ -3036,7 +3042,7 @@
     <s v="GenDT: mobile network drive testing made efficient with generative modeling"/>
     <s v="SunEtAl2022"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="47"/>
     <s v="Attribute"/>
@@ -3049,7 +3055,7 @@
     <s v="GenDT: mobile network drive testing made efficient with generative modeling"/>
     <s v="SunEtAl2022"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="48"/>
     <s v="Attribute"/>
@@ -3075,8 +3081,8 @@
     <s v="GenDT: mobile network drive testing made efficient with generative modeling"/>
     <s v="SunEtAl2022"/>
     <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR MAE"/>
     <x v="1"/>
@@ -3088,8 +3094,8 @@
     <s v="GenDT: mobile network drive testing made efficient with generative modeling"/>
     <s v="SunEtAl2022"/>
     <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR Dynamic Time Warping"/>
     <x v="1"/>
@@ -3101,8 +3107,8 @@
     <s v="GenDT: mobile network drive testing made efficient with generative modeling"/>
     <s v="SunEtAl2022"/>
     <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR Histogram Wasserstein Distance"/>
     <x v="1"/>
@@ -3166,7 +3172,7 @@
     <s v="ITF-GAN: Synthetic time series dataset generation and manipulation by interpretable features"/>
     <s v="KlopriesEtAl2024"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="47"/>
     <s v="Attribute"/>
@@ -3205,7 +3211,7 @@
     <s v="ITF-GAN: Synthetic time series dataset generation and manipulation by interpretable features"/>
     <s v="KlopriesEtAl2024"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="54"/>
     <s v="Attribute"/>
@@ -3218,12 +3224,12 @@
     <s v="ITF-GAN: Synthetic time series dataset generation and manipulation by interpretable features"/>
     <s v="KlopriesEtAl2024"/>
     <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="55"/>
     <s v="Discrimination"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="0"/>
     <m/>
   </r>
   <r>
@@ -3231,8 +3237,8 @@
     <s v="ITF-GAN: Synthetic time series dataset generation and manipulation by interpretable features"/>
     <s v="KlopriesEtAl2024"/>
     <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR MAE"/>
     <x v="1"/>
@@ -3244,8 +3250,8 @@
     <s v="Generative Time-series Modeling with Fourier Flows"/>
     <s v="AlaaEtAl2020"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR F1"/>
     <x v="1"/>
@@ -3257,8 +3263,8 @@
     <s v="Generative Time-series Modeling with Fourier Flows"/>
     <s v="AlaaEtAl2020"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR MAE"/>
     <x v="1"/>
@@ -3270,8 +3276,8 @@
     <s v="Generative AI Enables the Detection of Autism Using EEG Signals"/>
     <s v="LiEtAl2023"/>
     <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR Accuracy"/>
     <x v="1"/>
@@ -3296,8 +3302,8 @@
     <s v="Diffusion-based conditional ECG generation with structured state space models"/>
     <s v="AlcarazAndStrodthoff2023"/>
     <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR AUC"/>
     <x v="1"/>
@@ -3309,8 +3315,8 @@
     <s v="Diffusion-based conditional ECG generation with structured state space models"/>
     <s v="AlcarazAndStrodthoff2023"/>
     <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="56"/>
     <s v="TSTS AUC"/>
     <x v="1"/>
@@ -3322,8 +3328,8 @@
     <s v="Diffusion-based conditional ECG generation with structured state space models"/>
     <s v="AlcarazAndStrodthoff2023"/>
     <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="57"/>
     <s v="TRTS AUC"/>
     <x v="1"/>
@@ -3335,8 +3341,8 @@
     <s v="Generating Healthcare Time Series Data for Improving Diagnostic Accuracy of Deep Neural Networks"/>
     <s v="MaweuEtAl2021"/>
     <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="57"/>
     <s v="TRTS Specificity"/>
     <x v="1"/>
@@ -3348,8 +3354,8 @@
     <s v="Generating Healthcare Time Series Data for Improving Diagnostic Accuracy of Deep Neural Networks"/>
     <s v="MaweuEtAl2021"/>
     <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="57"/>
     <s v="TRTS Recall"/>
     <x v="1"/>
@@ -3530,8 +3536,8 @@
     <s v="Causal Recurrent Variational Autoencoder for Medical Time Series Generation"/>
     <s v="LiAndYu2023"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR RMSE"/>
     <x v="1"/>
@@ -3647,7 +3653,7 @@
     <s v="Synthetic Financial Time Series Generation with Regime Clustering"/>
     <s v="ZakharovEtAl2023"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="32"/>
     <s v="Autocorrelation Plot"/>
@@ -3660,8 +3666,8 @@
     <s v="Synthetic Financial Time Series Generation with Regime Clustering"/>
     <s v="ZakharovEtAl2023"/>
     <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR MSE"/>
     <x v="1"/>
@@ -3725,7 +3731,7 @@
     <s v="Synthetic Financial Time Series Generation with Regime Clustering"/>
     <s v="ZakharovEtAl2023"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="67"/>
     <s v="Spectral Density"/>
@@ -3764,12 +3770,12 @@
     <s v="Improving Time Series Generation of GANs through Soft Dynamic Time Warping Loss"/>
     <s v="YuAndKarray2022"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="55"/>
     <s v="Discrimination"/>
     <x v="4"/>
-    <x v="6"/>
+    <x v="0"/>
     <m/>
   </r>
   <r>
@@ -3803,12 +3809,12 @@
     <s v="Time-series Generative Adversarial Networks"/>
     <s v="YoonEtAl2019"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="55"/>
     <s v="Discrimination"/>
     <x v="4"/>
-    <x v="6"/>
+    <x v="0"/>
     <m/>
   </r>
   <r>
@@ -3816,8 +3822,8 @@
     <s v="Time-series Generative Adversarial Networks"/>
     <s v="YoonEtAl2019"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR MAE"/>
     <x v="1"/>
@@ -3855,12 +3861,12 @@
     <s v="Qualitative and Quantitative Evaluation of Multivariate Time-Series Synthetic Data Generated Using MTS-TGAN: A Novel Approach"/>
     <s v="YadavEtAl2023"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="55"/>
     <s v="Discrimination"/>
     <x v="4"/>
-    <x v="6"/>
+    <x v="0"/>
     <m/>
   </r>
   <r>
@@ -3868,8 +3874,8 @@
     <s v="Qualitative and Quantitative Evaluation of Multivariate Time-Series Synthetic Data Generated Using MTS-TGAN: A Novel Approach"/>
     <s v="YadavEtAl2023"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR MAE"/>
     <x v="1"/>
@@ -3882,7 +3888,7 @@
     <s v="Xu2018"/>
     <x v="4"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="17"/>
     <s v="TMTR Accuracy"/>
     <x v="1"/>
@@ -3894,7 +3900,7 @@
     <s v="Synthesizing Tabular Data using Generative Adversarial Networks"/>
     <s v="Xu2018"/>
     <x v="4"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="68"/>
     <s v="Mutual Information"/>
@@ -3907,7 +3913,7 @@
     <s v="Synthesizing Tabular Data using Generative Adversarial Networks"/>
     <s v="Xu2018"/>
     <x v="4"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="68"/>
     <s v="Mutual Information"/>
@@ -3920,7 +3926,7 @@
     <s v="Modeling Tabular data using Conditional GAN"/>
     <s v="XuEtAl2019"/>
     <x v="4"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="69"/>
     <s v="Likelihood fitness"/>
@@ -3934,7 +3940,7 @@
     <s v="XuEtAl2020"/>
     <x v="4"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR Accuracy"/>
     <x v="1"/>
@@ -3947,7 +3953,7 @@
     <s v="XuEtAl2021"/>
     <x v="4"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR F1"/>
     <x v="1"/>
@@ -3960,7 +3966,7 @@
     <s v="XuEtAl2022"/>
     <x v="4"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR R2"/>
     <x v="1"/>
@@ -3985,12 +3991,12 @@
     <s v="IH-TCGAN: Time-Series Conditional Generative Adversarial Network with Improved Hausdorff Distance for Synthesizing Intention Recognition Data"/>
     <s v="WangEtAl2023"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="55"/>
     <s v="Discrimination"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="0"/>
     <m/>
   </r>
   <r>
@@ -3998,8 +4004,8 @@
     <s v="IH-TCGAN: Time-Series Conditional Generative Adversarial Network with Improved Hausdorff Distance for Synthesizing Intention Recognition Data"/>
     <s v="WangEtAl2023"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR Precision"/>
     <x v="1"/>
@@ -4011,8 +4017,8 @@
     <s v="IH-TCGAN: Time-Series Conditional Generative Adversarial Network with Improved Hausdorff Distance for Synthesizing Intention Recognition Data"/>
     <s v="WangEtAl2023"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR Recall"/>
     <x v="1"/>
@@ -4024,8 +4030,8 @@
     <s v="IH-TCGAN: Time-Series Conditional Generative Adversarial Network with Improved Hausdorff Distance for Synthesizing Intention Recognition Data"/>
     <s v="WangEtAl2023"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR F1"/>
     <x v="1"/>
@@ -4037,8 +4043,8 @@
     <s v="IH-TCGAN: Time-Series Conditional Generative Adversarial Network with Improved Hausdorff Distance for Synthesizing Intention Recognition Data"/>
     <s v="WangEtAl2023"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR MAE"/>
     <x v="1"/>
@@ -4076,7 +4082,7 @@
     <s v="A generative adversarial networks based methodology for imbalanced multidimensional time-series augmentation of complex electromechanical systems"/>
     <s v="WangEtAl2024"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="32"/>
     <s v="Par"/>
@@ -4116,7 +4122,7 @@
     <s v="WangEtAl2024"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="3"/>
     <s v="Complex network-based clustering coefficient"/>
     <x v="1"/>
@@ -4128,7 +4134,7 @@
     <s v="AEC-GAN: Adversarial Error Correction GANs for Auto-Regressive Long Time-Series Generation"/>
     <s v="WangEtAl2023"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="32"/>
     <s v="Autocorrelation"/>
@@ -4206,8 +4212,8 @@
     <s v="Differentially private synthetic medical data generation using convolutional GANs"/>
     <s v="TorfiEtAl2022"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR F1"/>
     <x v="1"/>
@@ -4219,8 +4225,8 @@
     <s v="Differentially private synthetic medical data generation using convolutional GANs"/>
     <s v="TorfiEtAl2022"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR AUC"/>
     <x v="1"/>
@@ -4232,8 +4238,8 @@
     <s v="Differentially private synthetic medical data generation using convolutional GANs"/>
     <s v="TorfiEtAl2022"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR AUCPRC"/>
     <x v="1"/>
@@ -4336,8 +4342,8 @@
     <s v="Smart Home Energy Management: VAE-GAN Synthetic Dataset Generator and Q-Learning"/>
     <s v="RazghandiEtAl2024"/>
     <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR Trade Profit"/>
     <x v="1"/>
@@ -4349,12 +4355,12 @@
     <s v="Towards Generating Real-World Time Series Data"/>
     <s v="PeiEtAl2021"/>
     <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="55"/>
     <s v="Discrimination"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="0"/>
     <m/>
   </r>
   <r>
@@ -4362,8 +4368,8 @@
     <s v="Towards Generating Real-World Time Series Data"/>
     <s v="PeiEtAl2021"/>
     <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR MAE"/>
     <x v="1"/>
@@ -4375,8 +4381,8 @@
     <s v="Towards Generating Real-World Time Series Data"/>
     <s v="PeiEtAl2021"/>
     <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR AUC"/>
     <x v="1"/>
@@ -4453,7 +4459,7 @@
     <s v="ETGAN: A Hybrid GAN Ensemble for Synthesizing Time-Dependent and Static Tabular Data"/>
     <s v="ParsiEtAl2024"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="47"/>
     <s v="Attribute"/>
@@ -4531,8 +4537,8 @@
     <s v="5GT-GAN: Enhancing Data Augmentation for 5G-Enabled Mobile Edge Computing in Smart Cities"/>
     <s v="PandeyEtAl2023"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR MAE"/>
     <x v="1"/>
@@ -4544,8 +4550,8 @@
     <s v="5GT-GAN: Enhancing Data Augmentation for 5G-Enabled Mobile Edge Computing in Smart Cities"/>
     <s v="PandeyEtAl2023"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="57"/>
     <s v="TRTS MAE"/>
     <x v="1"/>
@@ -4557,8 +4563,8 @@
     <s v="5GT-GAN: Enhancing Data Augmentation for 5G-Enabled Mobile Edge Computing in Smart Cities"/>
     <s v="PandeyEtAl2023"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR MSLE"/>
     <x v="1"/>
@@ -4570,8 +4576,8 @@
     <s v="5GT-GAN: Enhancing Data Augmentation for 5G-Enabled Mobile Edge Computing in Smart Cities"/>
     <s v="PandeyEtAl2023"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="57"/>
     <s v="TRTS MSLE"/>
     <x v="1"/>
@@ -4596,12 +4602,12 @@
     <s v="5GT-GAN: Enhancing Data Augmentation for 5G-Enabled Mobile Edge Computing in Smart Cities"/>
     <s v="PandeyEtAl2023"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="55"/>
     <s v="Discrimination"/>
     <x v="4"/>
-    <x v="6"/>
+    <x v="0"/>
     <m/>
   </r>
   <r>
@@ -4609,8 +4615,8 @@
     <s v="5GT-GAN: Enhancing Data Augmentation for 5G-Enabled Mobile Edge Computing in Smart Cities"/>
     <s v="PandeyEtAl2023"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR MAE"/>
     <x v="1"/>
@@ -4635,7 +4641,7 @@
     <s v="Synthetic Ride-Requests Generation using WGAN with Location Embeddings"/>
     <s v="NookalaEtAl2021"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="75"/>
     <s v="RV Coefficient"/>
@@ -4648,7 +4654,7 @@
     <s v="Synthetic Ride-Requests Generation using WGAN with Location Embeddings"/>
     <s v="NookalaEtAl2021"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="76"/>
     <s v="Bhattacharyya Distance"/>
@@ -4661,7 +4667,7 @@
     <s v="Synthetic Ride-Requests Generation using WGAN with Location Embeddings"/>
     <s v="NookalaEtAl2021"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="77"/>
     <s v="Densification Power Law Alpha"/>
@@ -4674,7 +4680,7 @@
     <s v="Synthetic Ride-Requests Generation using WGAN with Location Embeddings"/>
     <s v="NookalaEtAl2021"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="78"/>
     <s v="Aggregated Attribute"/>
@@ -4687,7 +4693,7 @@
     <s v="Synthetic Ride-Requests Generation using WGAN with Location Embeddings"/>
     <s v="NookalaEtAl2021"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="78"/>
     <s v="Aggregated Attribute"/>
@@ -4700,12 +4706,12 @@
     <s v="HAR-STGAN: Human Activity Recognition-Spatial Transformer network for Generative Adversarial Network"/>
     <s v="NianEtAl2024"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="55"/>
     <s v="Discrimination"/>
     <x v="4"/>
-    <x v="6"/>
+    <x v="0"/>
     <m/>
   </r>
   <r>
@@ -4713,7 +4719,7 @@
     <s v="HAR-STGAN: Human Activity Recognition-Spatial Transformer network for Generative Adversarial Network"/>
     <s v="NianEtAl2024"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <s v="TSTR MAE"/>
@@ -4726,7 +4732,7 @@
     <s v="HAR-STGAN: Human Activity Recognition-Spatial Transformer network for Generative Adversarial Network"/>
     <s v="NianEtAl2024"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <s v="TSTR Accuracy"/>
@@ -4765,7 +4771,7 @@
     <s v="Sig-wasserstein GANs for time series generation"/>
     <s v="NiEtAl2022"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="32"/>
     <s v="temporal correlation"/>
@@ -4817,7 +4823,7 @@
     <s v="VTCGAN: A Proposed Multimodal Approach to Financial Time Series and Chart Pattern Generation for Algorithmic Trading"/>
     <s v="MtetwaEtAl2023"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="80"/>
     <s v="Trading Performance"/>
@@ -4830,7 +4836,7 @@
     <s v="C-RNN-GAN: Continuous recurrent neural networks with adversarial training"/>
     <s v="Mogren2016"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="81"/>
     <s v="Polyphony"/>
@@ -4843,7 +4849,7 @@
     <s v="C-RNN-GAN: Continuous recurrent neural networks with adversarial training"/>
     <s v="Mogren2016"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="82"/>
     <s v="Scale consistency"/>
@@ -4856,7 +4862,7 @@
     <s v="C-RNN-GAN: Continuous recurrent neural networks with adversarial training"/>
     <s v="Mogren2016"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="83"/>
     <s v="Repetitions"/>
@@ -4869,7 +4875,7 @@
     <s v="C-RNN-GAN: Continuous recurrent neural networks with adversarial training"/>
     <s v="Mogren2016"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="84"/>
     <s v="Tone span"/>
@@ -4882,7 +4888,7 @@
     <s v="Multi-Label Clinical Time-Series Generation via Conditional GAN"/>
     <s v="LuEtAl2024"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="85"/>
     <s v="Attribute Category"/>
@@ -5025,12 +5031,12 @@
     <s v="Conditional-TimeGAN for Realistic and High-Quality Appliance Trajectories Generation and Data Augmentation in Nonintrusive Load Monitoring"/>
     <s v="LiuEtAl2024"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="55"/>
     <s v="Discrimination"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="0"/>
     <m/>
   </r>
   <r>
@@ -5038,8 +5044,8 @@
     <s v="Conditional-TimeGAN for Realistic and High-Quality Appliance Trajectories Generation and Data Augmentation in Nonintrusive Load Monitoring"/>
     <s v="LiuEtAl2024"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR MAE"/>
     <x v="1"/>
@@ -5064,7 +5070,7 @@
     <s v="Using GANs for Sharing Networked Time Series Data: Challenges, Initial Promise, and Open Questions"/>
     <s v="LinEtAl2020"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="32"/>
     <s v="Autocorrelation"/>
@@ -5155,7 +5161,7 @@
     <s v="Conditional Sig-Wasserstein GANs for Time Series Generation"/>
     <s v="LiaoEtAl2020"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="32"/>
     <s v="Autocorrelation"/>
@@ -5181,8 +5187,8 @@
     <s v="Conditional Sig-Wasserstein GANs for Time Series Generation"/>
     <s v="LiaoEtAl2020"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR R2"/>
     <x v="1"/>
@@ -5233,12 +5239,12 @@
     <s v="Generating Realistic Multi-Class Biosignals with BioSGAN: A Transformer-Based Label-Guided Generative Adversarial Network"/>
     <s v="LiEtAl2023"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="55"/>
     <s v="Discrimination"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="0"/>
     <m/>
   </r>
   <r>
@@ -5246,8 +5252,8 @@
     <s v="Generating Realistic Multi-Class Biosignals with BioSGAN: A Transformer-Based Label-Guided Generative Adversarial Network"/>
     <s v="LiEtAl2023"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="17"/>
     <s v="TMTR Precision"/>
     <x v="1"/>
@@ -5259,8 +5265,8 @@
     <s v="Generating Realistic Multi-Class Biosignals with BioSGAN: A Transformer-Based Label-Guided Generative Adversarial Network"/>
     <s v="LiEtAl2023"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="17"/>
     <s v="TMTR Recall"/>
     <x v="1"/>
@@ -5272,8 +5278,8 @@
     <s v="Generating Realistic Multi-Class Biosignals with BioSGAN: A Transformer-Based Label-Guided Generative Adversarial Network"/>
     <s v="LiEtAl2023"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="17"/>
     <s v="TMTR F1"/>
     <x v="1"/>
@@ -5311,12 +5317,12 @@
     <s v="Generating synthetic mixed-type longitudinal electronic health records for artificial intelligent applications"/>
     <s v="LiEtAl2023"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="55"/>
     <s v="Discrimination"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="0"/>
     <m/>
   </r>
   <r>
@@ -5350,7 +5356,7 @@
     <s v="Generating synthetic mixed-type longitudinal electronic health records for artificial intelligent applications"/>
     <s v="LiEtAl2023"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="43"/>
     <s v="Pearson Correlation Time Plot"/>
@@ -5376,8 +5382,8 @@
     <s v="Generating synthetic mixed-type longitudinal electronic health records for artificial intelligent applications"/>
     <s v="LiEtAl2023"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR AUC"/>
     <x v="1"/>
@@ -5389,8 +5395,8 @@
     <s v="Generating synthetic mixed-type longitudinal electronic health records for artificial intelligent applications"/>
     <s v="LiEtAl2023"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="17"/>
     <s v="TMTR AUC"/>
     <x v="1"/>
@@ -5428,7 +5434,7 @@
     <s v="Energy data generation with Wasserstein Deep Convolutional Generative Adversarial Networks"/>
     <s v="LiEtAl2022"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="32"/>
     <s v="Autocorrelation"/>
@@ -5454,8 +5460,8 @@
     <s v="Energy data generation with Wasserstein Deep Convolutional Generative Adversarial Networks"/>
     <s v="LiEtAl2022"/>
     <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR F1"/>
     <x v="1"/>
@@ -5467,8 +5473,8 @@
     <s v="Energy data generation with Wasserstein Deep Convolutional Generative Adversarial Networks"/>
     <s v="LiEtAl2022"/>
     <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR Accuracy"/>
     <x v="1"/>
@@ -5506,7 +5512,7 @@
     <s v="GlucoSynth: Generating Differentially-Private Synthetic Glucose Traces"/>
     <s v="LampEtAl2023"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="96"/>
     <s v="Time-in-Range"/>
@@ -5532,7 +5538,7 @@
     <s v="GlucoSynth: Generating Differentially-Private Synthetic Glucose Traces"/>
     <s v="LampEtAl2023"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="98"/>
     <s v="Motif Overlap, Motif Coverage"/>
@@ -5545,7 +5551,7 @@
     <s v="GlucoSynth: Generating Differentially-Private Synthetic Glucose Traces"/>
     <s v="LampEtAl2023"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="99"/>
     <s v="Motif Distribution"/>
@@ -5558,8 +5564,8 @@
     <s v="GlucoSynth: Generating Differentially-Private Synthetic Glucose Traces"/>
     <s v="LampEtAl2023"/>
     <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR RMSE"/>
     <x v="1"/>
@@ -5597,12 +5603,12 @@
     <s v="SPATE-GAN: Improved Generative Modeling of Dynamic Spatio-Temporal Patterns with an Autoregressive Embedding Loss"/>
     <s v="KlemmerEtAl2022"/>
     <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="55"/>
     <s v="Discrimination"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="0"/>
     <s v="Uses classifier two-sample test based on a k-nearestneighbor (KNN) classifier with k = 1"/>
   </r>
   <r>
@@ -5662,7 +5668,7 @@
     <s v="Improved Training of Wasserstein GANs"/>
     <s v="GulrajaniEtAl2017"/>
     <x v="5"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="73"/>
     <s v="Inception Score"/>
@@ -5740,8 +5746,8 @@
     <s v="HierTGAN: Hierarchical Time Series Generation with Aggregation Constraints"/>
     <s v="GujullaLeelEtAl2024"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR MAE"/>
     <x v="1"/>
@@ -5754,7 +5760,7 @@
     <s v="FengEtAl2020"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="104"/>
     <s v="Travel Metrics"/>
     <x v="1"/>
@@ -5779,8 +5785,8 @@
     <s v="Real-valued (Medical) Time Series Generation with Recurrent Conditional GANs"/>
     <s v="EstebanEtAl2017"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR AUC"/>
     <x v="1"/>
@@ -5792,8 +5798,8 @@
     <s v="Real-valued (Medical) Time Series Generation with Recurrent Conditional GANs"/>
     <s v="EstebanEtAl2017"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR AUPRC"/>
     <x v="1"/>
@@ -5831,8 +5837,8 @@
     <s v="Coherent Multi-Table Data Synthesis for Tabular and Time-Series Data with GANs"/>
     <s v="EllikerEtAl2024"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR F1"/>
     <x v="1"/>
@@ -5844,8 +5850,8 @@
     <s v="Coherent Multi-Table Data Synthesis for Tabular and Time-Series Data with GANs"/>
     <s v="EllikerEtAl2024"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR AUC"/>
     <x v="1"/>
@@ -5870,12 +5876,12 @@
     <s v="Fully embedded time series generative adversarial networks"/>
     <s v="BeckAndChakraborty2024"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="55"/>
     <s v="Discrimination"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="0"/>
     <m/>
   </r>
   <r>
@@ -5883,8 +5889,8 @@
     <s v="Fully embedded time series generative adversarial networks"/>
     <s v="BeckAndChakraborty2024"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR MAE"/>
     <x v="1"/>
@@ -5896,7 +5902,7 @@
     <s v="FinDiff: Diffusion Models for Financial Tabular Data Generation"/>
     <s v="SattarovEtAl2023"/>
     <x v="4"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="66"/>
     <s v="Attribute"/>
@@ -5909,7 +5915,7 @@
     <s v="FinDiff: Diffusion Models for Financial Tabular Data Generation"/>
     <s v="SattarovEtAl2023"/>
     <x v="4"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="52"/>
     <s v="Attribute Pearson Correlation"/>
@@ -5922,7 +5928,7 @@
     <s v="FinDiff: Diffusion Models for Financial Tabular Data Generation"/>
     <s v="SattarovEtAl2023"/>
     <x v="4"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="35"/>
     <s v="Distance to Closest Records"/>
@@ -5936,7 +5942,7 @@
     <s v="SattarovEtAl2023"/>
     <x v="4"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="TSTR Accuracy"/>
     <x v="1"/>
@@ -5948,7 +5954,7 @@
     <s v="FinDiff: Diffusion Models for Financial Tabular Data Generation"/>
     <s v="SattarovEtAl2023"/>
     <x v="4"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="106"/>
     <s v="Real Record within 1% Range"/>
@@ -5960,13 +5966,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9BD7D900-B0A1-4542-9086-40712969F192}" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A5:B195" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9BD7D900-B0A1-4542-9086-40712969F192}" name="PivotTable3" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A5:D57" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="11">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField axis="axisCol" multipleItemSelectionAllowed="1" showAll="0">
       <items count="7">
         <item x="1"/>
         <item x="5"/>
@@ -5979,15 +5985,15 @@
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
       <items count="4">
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
         <item m="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item x="0"/>
         <item m="1" x="2"/>
         <item t="default"/>
@@ -6151,46 +6157,21 @@
         <item m="1" x="7"/>
         <item x="1"/>
         <item x="3"/>
-        <item x="6"/>
+        <item m="1" x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
   </pivotFields>
-  <rowFields count="3">
+  <rowFields count="2">
     <field x="9"/>
-    <field x="3"/>
     <field x="6"/>
   </rowFields>
-  <rowItems count="190">
+  <rowItems count="51">
     <i>
       <x/>
     </i>
     <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="99"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="84"/>
-    </i>
-    <i r="2">
-      <x v="85"/>
-    </i>
-    <i r="2">
-      <x v="99"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="52"/>
-    </i>
-    <i r="2">
       <x v="99"/>
     </i>
     <i>
@@ -6199,543 +6180,161 @@
     <i r="1">
       <x/>
     </i>
-    <i r="2">
-      <x v="36"/>
-    </i>
-    <i r="2">
-      <x v="38"/>
-    </i>
-    <i r="2">
-      <x v="41"/>
-    </i>
-    <i r="2">
-      <x v="51"/>
-    </i>
-    <i r="2">
-      <x v="66"/>
-    </i>
-    <i r="2">
-      <x v="69"/>
-    </i>
-    <i r="2">
-      <x v="75"/>
-    </i>
-    <i r="2">
-      <x v="88"/>
-    </i>
-    <i r="2">
-      <x v="92"/>
-    </i>
-    <i r="2">
-      <x v="93"/>
-    </i>
-    <i r="2">
-      <x v="103"/>
-    </i>
-    <i r="2">
-      <x v="109"/>
-    </i>
     <i r="1">
       <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="56"/>
     </i>
     <i r="1">
       <x v="2"/>
     </i>
-    <i r="2">
-      <x v="12"/>
-    </i>
-    <i r="2">
-      <x v="19"/>
-    </i>
-    <i r="2">
-      <x v="62"/>
-    </i>
-    <i r="2">
-      <x v="71"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="2">
-      <x v="11"/>
-    </i>
-    <i r="2">
-      <x v="13"/>
-    </i>
-    <i r="2">
-      <x v="15"/>
-    </i>
-    <i r="2">
-      <x v="16"/>
-    </i>
-    <i r="2">
-      <x v="18"/>
-    </i>
-    <i r="2">
-      <x v="19"/>
-    </i>
-    <i r="2">
-      <x v="20"/>
-    </i>
-    <i r="2">
-      <x v="22"/>
-    </i>
-    <i r="2">
-      <x v="26"/>
-    </i>
-    <i r="2">
-      <x v="27"/>
-    </i>
-    <i r="2">
-      <x v="30"/>
-    </i>
-    <i r="2">
-      <x v="31"/>
-    </i>
-    <i r="2">
-      <x v="33"/>
-    </i>
-    <i r="2">
-      <x v="38"/>
-    </i>
-    <i r="2">
-      <x v="39"/>
-    </i>
-    <i r="2">
-      <x v="40"/>
-    </i>
-    <i r="2">
-      <x v="47"/>
-    </i>
-    <i r="2">
-      <x v="50"/>
-    </i>
-    <i r="2">
-      <x v="54"/>
-    </i>
-    <i r="2">
-      <x v="57"/>
-    </i>
-    <i r="2">
-      <x v="77"/>
-    </i>
-    <i r="2">
-      <x v="78"/>
-    </i>
-    <i r="2">
-      <x v="79"/>
-    </i>
-    <i r="2">
-      <x v="87"/>
-    </i>
-    <i r="2">
-      <x v="89"/>
-    </i>
-    <i r="2">
-      <x v="90"/>
-    </i>
-    <i r="2">
-      <x v="103"/>
-    </i>
-    <i r="2">
-      <x v="107"/>
-    </i>
-    <i r="2">
-      <x v="109"/>
-    </i>
-    <i r="2">
-      <x v="110"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="2">
-      <x v="10"/>
-    </i>
-    <i r="2">
-      <x v="11"/>
-    </i>
-    <i r="2">
-      <x v="12"/>
-    </i>
-    <i r="2">
-      <x v="13"/>
-    </i>
-    <i r="2">
-      <x v="14"/>
-    </i>
-    <i r="2">
-      <x v="15"/>
-    </i>
-    <i r="2">
-      <x v="16"/>
-    </i>
-    <i r="2">
-      <x v="17"/>
-    </i>
-    <i r="2">
-      <x v="19"/>
-    </i>
-    <i r="2">
-      <x v="20"/>
-    </i>
-    <i r="2">
-      <x v="21"/>
-    </i>
-    <i r="2">
-      <x v="23"/>
-    </i>
-    <i r="2">
-      <x v="25"/>
-    </i>
-    <i r="2">
-      <x v="26"/>
-    </i>
-    <i r="2">
-      <x v="27"/>
-    </i>
-    <i r="2">
-      <x v="29"/>
-    </i>
-    <i r="2">
-      <x v="31"/>
-    </i>
-    <i r="2">
-      <x v="33"/>
-    </i>
-    <i r="2">
-      <x v="54"/>
-    </i>
-    <i r="2">
-      <x v="56"/>
-    </i>
-    <i r="2">
-      <x v="60"/>
-    </i>
-    <i r="2">
-      <x v="65"/>
-    </i>
-    <i r="2">
-      <x v="67"/>
-    </i>
-    <i r="2">
-      <x v="71"/>
-    </i>
-    <i r="2">
-      <x v="77"/>
-    </i>
-    <i r="2">
-      <x v="78"/>
-    </i>
-    <i r="2">
-      <x v="82"/>
-    </i>
-    <i r="2">
-      <x v="91"/>
-    </i>
-    <i r="2">
-      <x v="103"/>
-    </i>
-    <i r="2">
-      <x v="106"/>
-    </i>
-    <i r="2">
-      <x v="109"/>
-    </i>
-    <i r="2">
-      <x v="110"/>
-    </i>
     <i r="1">
       <x v="5"/>
     </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="2">
+    <i r="1">
       <x v="33"/>
     </i>
-    <i r="2">
+    <i r="1">
       <x v="34"/>
     </i>
-    <i r="2">
+    <i r="1">
       <x v="35"/>
     </i>
-    <i r="2">
+    <i r="1">
       <x v="36"/>
     </i>
-    <i r="2">
+    <i r="1">
       <x v="37"/>
     </i>
-    <i r="2">
+    <i r="1">
       <x v="38"/>
     </i>
-    <i r="2">
+    <i r="1">
       <x v="41"/>
     </i>
-    <i r="2">
+    <i r="1">
       <x v="42"/>
     </i>
-    <i r="2">
+    <i r="1">
       <x v="43"/>
     </i>
-    <i r="2">
+    <i r="1">
+      <x v="45"/>
+    </i>
+    <i r="1">
       <x v="49"/>
     </i>
-    <i r="2">
+    <i r="1">
+      <x v="51"/>
+    </i>
+    <i r="1">
       <x v="54"/>
     </i>
-    <i r="2">
+    <i r="1">
       <x v="60"/>
     </i>
-    <i r="2">
+    <i r="1">
       <x v="61"/>
     </i>
-    <i r="2">
+    <i r="1">
       <x v="63"/>
     </i>
-    <i r="2">
+    <i r="1">
+      <x v="66"/>
+    </i>
+    <i r="1">
+      <x v="69"/>
+    </i>
+    <i r="1">
       <x v="73"/>
     </i>
-    <i r="2">
+    <i r="1">
+      <x v="75"/>
+    </i>
+    <i r="1">
       <x v="76"/>
     </i>
-    <i r="2">
+    <i r="1">
       <x v="81"/>
     </i>
-    <i r="2">
+    <i r="1">
       <x v="86"/>
     </i>
-    <i r="2">
+    <i r="1">
+      <x v="88"/>
+    </i>
+    <i r="1">
       <x v="92"/>
     </i>
-    <i r="2">
+    <i r="1">
+      <x v="93"/>
+    </i>
+    <i r="1">
       <x v="94"/>
     </i>
-    <i r="2">
+    <i r="1">
       <x v="95"/>
     </i>
-    <i r="2">
+    <i r="1">
       <x v="100"/>
     </i>
-    <i r="2">
+    <i r="1">
+      <x v="103"/>
+    </i>
+    <i r="1">
       <x v="108"/>
+    </i>
+    <i r="1">
+      <x v="109"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i r="1">
-      <x/>
-    </i>
-    <i r="2">
       <x v="68"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="58"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="80"/>
     </i>
     <i>
       <x v="3"/>
     </i>
     <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="64"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x v="46"/>
-    </i>
-    <i r="2">
-      <x v="83"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="44"/>
-    </i>
-    <i r="2">
-      <x v="46"/>
-    </i>
-    <i r="2">
-      <x v="64"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="2">
       <x v="46"/>
     </i>
     <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="2">
-      <x v="46"/>
+      <x v="64"/>
     </i>
     <i>
       <x v="5"/>
     </i>
     <i r="1">
-      <x/>
-    </i>
-    <i r="2">
       <x v="97"/>
     </i>
-    <i r="2">
-      <x v="104"/>
+    <i r="1">
+      <x v="101"/>
     </i>
     <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x v="97"/>
-    </i>
-    <i r="2">
-      <x v="104"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="53"/>
-    </i>
-    <i r="2">
-      <x v="55"/>
-    </i>
-    <i r="2">
-      <x v="74"/>
-    </i>
-    <i r="2">
-      <x v="97"/>
-    </i>
-    <i r="2">
-      <x v="98"/>
-    </i>
-    <i r="2">
-      <x v="102"/>
-    </i>
-    <i r="2">
-      <x v="104"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="102"/>
-    </i>
-    <i r="2">
-      <x v="104"/>
-    </i>
-    <i r="2">
-      <x v="105"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="2">
-      <x v="97"/>
-    </i>
-    <i r="2">
-      <x v="101"/>
-    </i>
-    <i r="2">
       <x v="104"/>
     </i>
     <i>
       <x v="6"/>
     </i>
     <i r="1">
-      <x/>
-    </i>
-    <i r="2">
       <x v="70"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="48"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="24"/>
-    </i>
-    <i r="2">
-      <x v="96"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="45"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="45"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="2">
-      <x v="45"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </colItems>
   <pageFields count="3">
     <pageField fld="5" hier="-1"/>
@@ -6759,7 +6358,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{03204D3D-8E0C-42A3-A34D-20FACF0EB17A}" name="Table1" displayName="Table1" ref="A3:K330" totalsRowShown="0">
-  <autoFilter ref="A3:K330" xr:uid="{8A08E75C-D51A-4C7C-859C-1F0189763A4A}"/>
+  <autoFilter ref="A3:K330" xr:uid="{8A08E75C-D51A-4C7C-859C-1F0189763A4A}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Temporal-Graph"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="19" xr3:uid="{71C35FE1-F5D6-43E5-A007-98E99DA17231}" name="ID" dataDxfId="3"/>
     <tableColumn id="1" xr3:uid="{4003D917-CCFB-4209-A266-2795E6FE3C8D}" name="Paper"/>
@@ -7059,7 +6664,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -7117,7 +6722,7 @@
       </c>
       <c r="D4" s="16">
         <f>COUNTIF(Table1[MetricCategory], overview!B4)</f>
-        <v>202</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -7195,7 +6800,7 @@
       </c>
       <c r="D11" s="5">
         <f>COUNTIF(Table1[MetricCategory], overview!B11)</f>
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -7235,35 +6840,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869C8EBB-531C-40E2-A5C1-7D2201502D26}">
-  <dimension ref="A1:I195"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>178</v>
       </c>
@@ -7271,7 +6876,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>131</v>
       </c>
@@ -7279,1644 +6884,914 @@
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="B5" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B7" s="20">
+        <v>1</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="20">
+        <v>1</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="20">
+        <v>20</v>
+      </c>
+      <c r="C9" s="20">
+        <v>43</v>
+      </c>
+      <c r="D9" s="20">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20">
+        <v>1</v>
+      </c>
+      <c r="D11" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20">
+        <v>2</v>
+      </c>
+      <c r="D12" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20">
+        <v>1</v>
+      </c>
+      <c r="D13" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20">
+        <v>1</v>
+      </c>
+      <c r="D14" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20">
+        <v>1</v>
+      </c>
+      <c r="D15" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20">
+        <v>1</v>
+      </c>
+      <c r="D16" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="20">
+        <v>2</v>
+      </c>
+      <c r="C17" s="20">
+        <v>5</v>
+      </c>
+      <c r="D17" s="20">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B9" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="B10" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B13" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B14" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="20">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20">
+        <v>1</v>
+      </c>
+      <c r="D18" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>133</v>
       </c>
       <c r="B19" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+      <c r="C19" s="20">
+        <v>3</v>
+      </c>
+      <c r="D19" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="C20" s="20">
+        <v>4</v>
+      </c>
+      <c r="D20" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20">
+        <v>1</v>
+      </c>
+      <c r="D21" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20">
+        <v>1</v>
+      </c>
+      <c r="D22" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20">
+        <v>1</v>
+      </c>
+      <c r="D23" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20">
+        <v>1</v>
+      </c>
+      <c r="D24" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+      <c r="B25" s="20">
+        <v>1</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20">
+        <v>1</v>
+      </c>
+      <c r="D26" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20">
+        <v>1</v>
+      </c>
+      <c r="D27" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20">
+        <v>2</v>
+      </c>
+      <c r="D28" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20">
+        <v>3</v>
+      </c>
+      <c r="D29" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="B22" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="B30" s="20">
+        <v>1</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="B23" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="B31" s="20">
+        <v>1</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20">
+        <v>1</v>
+      </c>
+      <c r="D32" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B33" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="C33" s="20"/>
+      <c r="D33" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20">
+        <v>1</v>
+      </c>
+      <c r="D34" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20">
+        <v>1</v>
+      </c>
+      <c r="D35" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20">
+        <v>1</v>
+      </c>
+      <c r="D36" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="B25" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="B37" s="20">
+        <v>1</v>
+      </c>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B38" s="20">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="C38" s="20">
+        <v>2</v>
+      </c>
+      <c r="D38" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="B27" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="B39" s="20">
+        <v>1</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20">
+        <v>1</v>
+      </c>
+      <c r="D40" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20">
+        <v>1</v>
+      </c>
+      <c r="D41" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20">
+        <v>2</v>
+      </c>
+      <c r="D42" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="B28" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+      <c r="B43" s="20">
+        <v>1</v>
+      </c>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20">
+        <v>1</v>
+      </c>
+      <c r="D44" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="B29" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="B32" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="B33" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="B34" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="20">
+      <c r="B45" s="20">
+        <v>1</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B46" s="20">
+        <v>1</v>
+      </c>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="B47" s="20">
+        <v>1</v>
+      </c>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="20">
+        <v>1</v>
+      </c>
+      <c r="C48" s="20">
+        <v>1</v>
+      </c>
+      <c r="D48" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B37" s="20">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="B38" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="B39" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="B40" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="B41" s="20">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20">
+        <v>1</v>
+      </c>
+      <c r="D49" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50" s="20">
+        <v>1</v>
+      </c>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="B42" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B43" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="B44" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="B45" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="B46" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B47" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="B48" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="B49" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="B50" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="13" t="s">
-        <v>392</v>
-      </c>
       <c r="B51" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="13" t="s">
-        <v>377</v>
+        <v>18</v>
+      </c>
+      <c r="C51" s="20">
+        <v>13</v>
+      </c>
+      <c r="D51" s="20">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="B52" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="13" t="s">
-        <v>133</v>
+        <v>8</v>
+      </c>
+      <c r="C52" s="20">
+        <v>1</v>
+      </c>
+      <c r="D52" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20">
+        <v>1</v>
+      </c>
+      <c r="D53" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>167</v>
       </c>
       <c r="B54" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="13" t="s">
-        <v>37</v>
+        <v>10</v>
+      </c>
+      <c r="C54" s="20">
+        <v>11</v>
+      </c>
+      <c r="D54" s="20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>423</v>
       </c>
       <c r="B55" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
-        <v>396</v>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
+        <v>403</v>
       </c>
       <c r="B56" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="13" t="s">
-        <v>346</v>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>408</v>
       </c>
       <c r="B57" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="B58" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B59" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="B60" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="B61" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="B62" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="B63" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="B64" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="B65" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="B66" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="B67" s="20">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B68" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="B69" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="B70" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B71" s="20">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="B72" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="B73" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="B74" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="B75" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="B76" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="B77" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="B78" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="B79" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="B80" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B81" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="B82" s="20">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C57" s="20">
+        <v>57</v>
+      </c>
+      <c r="D57" s="20">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I82" s="13"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="B83" s="20">
-        <v>1</v>
-      </c>
+    <row r="83" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I83" s="13"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="B84" s="20">
-        <v>2</v>
-      </c>
+    <row r="84" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I84" s="13"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B85" s="20">
-        <v>2</v>
-      </c>
+    <row r="85" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I85" s="13"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="B86" s="20">
-        <v>1</v>
-      </c>
+    <row r="86" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I86" s="13"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="B87" s="20">
-        <v>1</v>
-      </c>
+    <row r="87" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I87" s="13"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="B88" s="20">
-        <v>1</v>
-      </c>
+    <row r="88" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I88" s="13"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="B89" s="20">
-        <v>1</v>
-      </c>
+    <row r="89" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I89" s="13"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="B90" s="20">
-        <v>2</v>
-      </c>
+    <row r="90" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I90" s="13"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="B91" s="20">
-        <v>1</v>
-      </c>
+    <row r="91" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I91" s="13"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="B92" s="20">
-        <v>4</v>
-      </c>
+    <row r="92" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I92" s="13"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B93" s="20">
-        <v>3</v>
-      </c>
+    <row r="93" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I93" s="13"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B94" s="20">
-        <v>1</v>
-      </c>
+    <row r="94" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I94" s="13"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B95" s="20">
-        <v>1</v>
-      </c>
+    <row r="95" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I95" s="13"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="B96" s="20">
-        <v>1</v>
-      </c>
-      <c r="G96" s="13"/>
+    <row r="96" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I96" s="13"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="B97" s="20">
-        <v>1</v>
-      </c>
-      <c r="G97" s="13"/>
+    <row r="97" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I97" s="13"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="B98" s="20">
-        <v>1</v>
-      </c>
-      <c r="G98" s="13"/>
+    <row r="98" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I98" s="13"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B99" s="20">
-        <v>1</v>
-      </c>
-      <c r="G99" s="13"/>
+    <row r="99" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I99" s="13"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="B100" s="20">
-        <v>3</v>
-      </c>
-      <c r="G100" s="13"/>
+    <row r="100" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I100" s="13"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="B101" s="20">
-        <v>2</v>
-      </c>
-      <c r="G101" s="13"/>
+    <row r="101" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I101" s="13"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="B102" s="20">
-        <v>1</v>
-      </c>
-      <c r="G102" s="13"/>
+    <row r="102" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I102" s="13"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="B103" s="20">
-        <v>1</v>
-      </c>
-      <c r="G103" s="13"/>
+    <row r="103" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I103" s="13"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="B104" s="20">
-        <v>3</v>
-      </c>
-      <c r="G104" s="13"/>
+    <row r="104" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I104" s="13"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="B105" s="20">
-        <v>1</v>
-      </c>
-      <c r="G105" s="13"/>
+    <row r="105" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I105" s="13"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="B106" s="20">
-        <v>2</v>
-      </c>
-      <c r="G106" s="13"/>
+    <row r="106" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I106" s="13"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="B107" s="20">
-        <v>1</v>
-      </c>
-      <c r="G107" s="13"/>
+    <row r="107" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I107" s="13"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B108" s="20">
-        <v>42</v>
-      </c>
-      <c r="G108" s="13"/>
+    <row r="108" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I108" s="13"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B109" s="20">
-        <v>1</v>
-      </c>
-      <c r="G109" s="13"/>
+    <row r="109" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I109" s="13"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="B110" s="20">
-        <v>1</v>
-      </c>
-      <c r="G110" s="13"/>
+    <row r="110" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I110" s="13"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="13" t="s">
-        <v>398</v>
-      </c>
-      <c r="B111" s="20">
-        <v>2</v>
-      </c>
-      <c r="G111" s="13"/>
+    <row r="111" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I111" s="13"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B112" s="20">
-        <v>1</v>
-      </c>
-      <c r="G112" s="13"/>
+    <row r="112" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I112" s="13"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B113" s="20">
-        <v>1</v>
-      </c>
-      <c r="G113" s="13"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B114" s="20">
-        <v>1</v>
-      </c>
-      <c r="G114" s="13"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="B115" s="20">
-        <v>1</v>
-      </c>
-      <c r="G115" s="13"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B116" s="20">
-        <v>5</v>
-      </c>
-      <c r="G116" s="13"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B117" s="20">
-        <v>1</v>
-      </c>
-      <c r="G117" s="13"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B118" s="20">
-        <v>3</v>
-      </c>
-      <c r="G118" s="13"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B119" s="20">
-        <v>4</v>
-      </c>
-      <c r="G119" s="13"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="B120" s="20">
-        <v>1</v>
-      </c>
-      <c r="G120" s="13"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B121" s="20">
-        <v>1</v>
-      </c>
-      <c r="G121" s="13"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B122" s="20">
-        <v>1</v>
-      </c>
+    <row r="122" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G122" s="13"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B123" s="20">
-        <v>1</v>
-      </c>
+    <row r="123" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G123" s="13"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="B124" s="20">
-        <v>1</v>
-      </c>
+    <row r="124" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G124" s="13"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B125" s="20">
-        <v>2</v>
-      </c>
+    <row r="125" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G125" s="13"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B126" s="20">
-        <v>3</v>
-      </c>
+    <row r="126" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G126" s="13"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="B127" s="20">
-        <v>1</v>
-      </c>
+    <row r="127" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G127" s="13"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B128" s="20">
-        <v>1</v>
-      </c>
+    <row r="128" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G128" s="13"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B129" s="20">
-        <v>1</v>
-      </c>
+    <row r="129" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G129" s="13"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B130" s="20">
-        <v>1</v>
-      </c>
+    <row r="130" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G130" s="13"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="B131" s="20">
-        <v>2</v>
-      </c>
+    <row r="131" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G131" s="13"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="B132" s="20">
-        <v>1</v>
-      </c>
+    <row r="132" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G132" s="13"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="B133" s="20">
-        <v>1</v>
-      </c>
+    <row r="133" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G133" s="13"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B134" s="20">
-        <v>2</v>
-      </c>
+    <row r="134" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G134" s="13"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B135" s="20">
-        <v>1</v>
-      </c>
+    <row r="135" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G135" s="13"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="B136" s="20">
-        <v>3</v>
-      </c>
+    <row r="136" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G136" s="13"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B137" s="20">
-        <v>1</v>
-      </c>
+    <row r="137" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G137" s="13"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="B138" s="20">
-        <v>1</v>
-      </c>
+    <row r="138" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G138" s="13"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B139" s="20">
-        <v>1</v>
-      </c>
+    <row r="139" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G139" s="13"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="B140" s="20">
-        <v>1</v>
-      </c>
+    <row r="140" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G140" s="13"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B141" s="20">
-        <v>1</v>
-      </c>
+    <row r="141" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G141" s="13"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B142" s="20">
-        <v>1</v>
-      </c>
+    <row r="142" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G142" s="13"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B143" s="20">
-        <v>8</v>
-      </c>
+    <row r="143" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G143" s="13"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B144" s="20">
-        <v>1</v>
-      </c>
+    <row r="144" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G144" s="13"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B145" s="20">
-        <v>1</v>
-      </c>
+    <row r="145" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G145" s="13"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="B146" s="20">
-        <v>2</v>
-      </c>
+    <row r="146" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G146" s="13"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="B147" s="20">
-        <v>1</v>
-      </c>
+    <row r="147" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G147" s="13"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="B148" s="20">
-        <v>1</v>
-      </c>
+    <row r="148" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G148" s="13"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B149" s="20">
-        <v>3</v>
-      </c>
+    <row r="149" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G149" s="13"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="B150" s="20">
-        <v>1</v>
-      </c>
+    <row r="150" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G150" s="13"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="B151" s="20">
-        <v>1</v>
-      </c>
+    <row r="151" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G151" s="13"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B152" s="20">
-        <v>1</v>
-      </c>
+    <row r="152" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G152" s="13"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B153" s="20">
-        <v>1</v>
-      </c>
+    <row r="153" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G153" s="13"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="B154" s="20">
-        <v>1</v>
-      </c>
+    <row r="154" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G154" s="13"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B155" s="20">
-        <v>1</v>
-      </c>
+    <row r="155" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G155" s="13"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="B156" s="20">
-        <v>1</v>
-      </c>
+    <row r="156" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G156" s="13"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B157" s="20">
-        <v>90</v>
-      </c>
+    <row r="157" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G157" s="13"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B158" s="20">
-        <v>18</v>
-      </c>
+    <row r="158" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G158" s="13"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="B159" s="20">
-        <v>8</v>
-      </c>
+    <row r="159" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G159" s="13"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B160" s="20">
-        <v>10</v>
-      </c>
+    <row r="160" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G160" s="13"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="B161" s="20">
-        <v>5</v>
-      </c>
+    <row r="161" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G161" s="13"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="B162" s="20">
-        <v>1</v>
-      </c>
+    <row r="162" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G162" s="13"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B163" s="20">
-        <v>4</v>
-      </c>
+    <row r="163" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G163" s="13"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B164" s="20">
-        <v>37</v>
-      </c>
+    <row r="164" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G164" s="13"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="B165" s="20">
-        <v>1</v>
-      </c>
+    <row r="165" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G165" s="13"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="B166" s="20">
-        <v>1</v>
-      </c>
+    <row r="166" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G166" s="13"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B167" s="20">
-        <v>1</v>
-      </c>
+    <row r="167" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G167" s="13"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="B168" s="20">
-        <v>5</v>
-      </c>
+    <row r="168" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G168" s="13"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="B169" s="20">
-        <v>1</v>
-      </c>
+    <row r="169" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G169" s="13"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="B170" s="20">
-        <v>2</v>
-      </c>
+    <row r="170" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G170" s="13"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B171" s="20">
-        <v>26</v>
-      </c>
+    <row r="171" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G171" s="13"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B172" s="20">
-        <v>17</v>
-      </c>
+    <row r="172" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G172" s="13"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="B173" s="20">
-        <v>3</v>
-      </c>
+    <row r="173" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G173" s="13"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B174" s="20">
-        <v>13</v>
-      </c>
+    <row r="174" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G174" s="13"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="B175" s="20">
-        <v>1</v>
-      </c>
+    <row r="175" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G175" s="13"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B176" s="20">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="B177" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="B178" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B179" s="20">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="B180" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B181" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="B182" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B183" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="B184" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B185" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="B186" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="B187" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="B188" s="20">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B189" s="20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="B190" s="20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B191" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="B192" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B193" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="B194" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="B195" s="20">
-        <v>327</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8927,8 +7802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B586D9EE-31D2-4409-BB24-648D31A743FB}">
   <dimension ref="A1:K332"/>
   <sheetViews>
-    <sheetView topLeftCell="A306" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F332" sqref="F332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8996,7 +7871,7 @@
         <v>73</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -9048,7 +7923,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -9081,7 +7956,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -9114,7 +7989,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -9147,7 +8022,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -9180,7 +8055,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -9213,7 +8088,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -9230,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
         <v>416</v>
@@ -9246,7 +8121,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -9279,7 +8154,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -9293,7 +8168,7 @@
         <v>3</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -9312,7 +8187,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -9326,7 +8201,7 @@
         <v>3</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -9345,7 +8220,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -9359,7 +8234,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -9378,7 +8253,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -9392,7 +8267,7 @@
         <v>3</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -9411,7 +8286,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -9428,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="s">
         <v>85</v>
@@ -9444,7 +8319,7 @@
         <v>Efficiency</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -9477,7 +8352,7 @@
         <v>Validity</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -9510,7 +8385,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -9543,7 +8418,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -9576,7 +8451,7 @@
         <v>Generalization</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -9590,7 +8465,7 @@
         <v>3</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -9609,7 +8484,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -9623,7 +8498,7 @@
         <v>3</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -9642,7 +8517,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -9675,7 +8550,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -9725,7 +8600,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="s">
         <v>5</v>
@@ -9755,10 +8630,10 @@
         <v>73</v>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="s">
         <v>369</v>
@@ -9807,7 +8682,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -9821,7 +8696,7 @@
         <v>3</v>
       </c>
       <c r="E29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
@@ -9840,7 +8715,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -9854,7 +8729,7 @@
         <v>3</v>
       </c>
       <c r="E30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
@@ -9873,7 +8748,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -9887,7 +8762,7 @@
         <v>3</v>
       </c>
       <c r="E31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
@@ -9906,7 +8781,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -9920,7 +8795,7 @@
         <v>3</v>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="b">
         <v>1</v>
@@ -9939,7 +8814,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -9953,7 +8828,7 @@
         <v>3</v>
       </c>
       <c r="E33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
@@ -9972,7 +8847,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -10005,7 +8880,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -10038,7 +8913,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -10071,7 +8946,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -10104,7 +8979,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -10121,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="s">
         <v>379</v>
@@ -10137,7 +9012,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -10151,7 +9026,7 @@
         <v>3</v>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="b">
         <v>1</v>
@@ -10170,7 +9045,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -10184,7 +9059,7 @@
         <v>3</v>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
@@ -10203,7 +9078,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -10217,7 +9092,7 @@
         <v>3</v>
       </c>
       <c r="E41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="b">
         <v>1</v>
@@ -10236,7 +9111,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -10269,7 +9144,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -10302,7 +9177,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -10335,7 +9210,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -10382,7 +9257,7 @@
         <v>73</v>
       </c>
       <c r="E46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="b">
         <v>1</v>
@@ -10415,7 +9290,7 @@
         <v>73</v>
       </c>
       <c r="E47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="b">
         <v>1</v>
@@ -10448,7 +9323,7 @@
         <v>73</v>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="b">
         <v>1</v>
@@ -10481,7 +9356,7 @@
         <v>73</v>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="b">
         <v>1</v>
@@ -10514,7 +9389,7 @@
         <v>73</v>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="b">
         <v>1</v>
@@ -10547,7 +9422,7 @@
         <v>73</v>
       </c>
       <c r="E51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="b">
         <v>1</v>
@@ -10566,7 +9441,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -10580,7 +9455,7 @@
         <v>3</v>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
@@ -10599,7 +9474,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -10613,7 +9488,7 @@
         <v>3</v>
       </c>
       <c r="E53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="b">
         <v>1</v>
@@ -10632,7 +9507,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -10646,7 +9521,7 @@
         <v>3</v>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="b">
         <v>1</v>
@@ -10665,7 +9540,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -10679,7 +9554,7 @@
         <v>3</v>
       </c>
       <c r="E55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
@@ -10698,7 +9573,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -10715,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="s">
         <v>141</v>
@@ -10745,7 +9620,7 @@
         <v>73</v>
       </c>
       <c r="E57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="b">
         <v>1</v>
@@ -10778,7 +9653,7 @@
         <v>73</v>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="b">
         <v>1</v>
@@ -10811,7 +9686,7 @@
         <v>73</v>
       </c>
       <c r="E59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="b">
         <v>1</v>
@@ -10844,7 +9719,7 @@
         <v>73</v>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="b">
         <v>1</v>
@@ -10877,7 +9752,7 @@
         <v>73</v>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="b">
         <v>1</v>
@@ -10910,7 +9785,7 @@
         <v>73</v>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="b">
         <v>1</v>
@@ -11009,7 +9884,7 @@
         <v>73</v>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="b">
         <v>1</v>
@@ -11042,7 +9917,7 @@
         <v>73</v>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="b">
         <v>1</v>
@@ -11075,7 +9950,7 @@
         <v>73</v>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="b">
         <v>1</v>
@@ -11108,7 +9983,7 @@
         <v>73</v>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="b">
         <v>1</v>
@@ -11141,7 +10016,7 @@
         <v>73</v>
       </c>
       <c r="E69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="b">
         <v>1</v>
@@ -11207,7 +10082,7 @@
         <v>73</v>
       </c>
       <c r="E71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="b">
         <v>1</v>
@@ -11240,7 +10115,7 @@
         <v>73</v>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="b">
         <v>1</v>
@@ -11273,7 +10148,7 @@
         <v>73</v>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="b">
         <v>1</v>
@@ -11306,7 +10181,7 @@
         <v>73</v>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="b">
         <v>1</v>
@@ -11339,7 +10214,7 @@
         <v>73</v>
       </c>
       <c r="E75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="b">
         <v>1</v>
@@ -11372,7 +10247,7 @@
         <v>73</v>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="b">
         <v>1</v>
@@ -11405,7 +10280,7 @@
         <v>73</v>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="b">
         <v>1</v>
@@ -11438,7 +10313,7 @@
         <v>73</v>
       </c>
       <c r="E78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="b">
         <v>1</v>
@@ -11471,7 +10346,7 @@
         <v>73</v>
       </c>
       <c r="E79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="b">
         <v>1</v>
@@ -11504,7 +10379,7 @@
         <v>73</v>
       </c>
       <c r="E80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="b">
         <v>1</v>
@@ -11537,7 +10412,7 @@
         <v>73</v>
       </c>
       <c r="E81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="b">
         <v>1</v>
@@ -11606,7 +10481,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="s">
         <v>55</v>
@@ -11639,7 +10514,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="s">
         <v>373</v>
@@ -11672,7 +10547,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" t="s">
         <v>372</v>
@@ -11702,10 +10577,10 @@
         <v>73</v>
       </c>
       <c r="E86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" t="s">
         <v>411</v>
@@ -11735,10 +10610,10 @@
         <v>73</v>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" t="s">
         <v>20</v>
@@ -11933,7 +10808,7 @@
         <v>73</v>
       </c>
       <c r="E93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="b">
         <v>1</v>
@@ -11955,7 +10830,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>91</v>
       </c>
@@ -11972,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" t="s">
         <v>174</v>
@@ -11988,7 +10863,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>92</v>
       </c>
@@ -12002,7 +10877,7 @@
         <v>178</v>
       </c>
       <c r="E95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
@@ -12021,7 +10896,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>93</v>
       </c>
@@ -12035,7 +10910,7 @@
         <v>178</v>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
@@ -12054,7 +10929,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>94</v>
       </c>
@@ -12068,7 +10943,7 @@
         <v>178</v>
       </c>
       <c r="E97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
@@ -12087,7 +10962,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>95</v>
       </c>
@@ -12120,7 +10995,7 @@
         <v>Generalization</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>96</v>
       </c>
@@ -12134,7 +11009,7 @@
         <v>178</v>
       </c>
       <c r="E99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
@@ -12153,7 +11028,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>97</v>
       </c>
@@ -12167,7 +11042,7 @@
         <v>178</v>
       </c>
       <c r="E100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
@@ -12186,7 +11061,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>98</v>
       </c>
@@ -12200,7 +11075,7 @@
         <v>178</v>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
@@ -12219,7 +11094,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>99</v>
       </c>
@@ -12233,7 +11108,7 @@
         <v>178</v>
       </c>
       <c r="E102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="b">
         <v>0</v>
@@ -12252,7 +11127,7 @@
         <v>Validity</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>100</v>
       </c>
@@ -12269,7 +11144,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103" t="s">
         <v>167</v>
@@ -12285,7 +11160,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>101</v>
       </c>
@@ -12302,7 +11177,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104" t="s">
         <v>167</v>
@@ -12318,7 +11193,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>102</v>
       </c>
@@ -12335,7 +11210,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" t="s">
         <v>312</v>
@@ -12351,7 +11226,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>103</v>
       </c>
@@ -12384,7 +11259,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>104</v>
       </c>
@@ -12417,7 +11292,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>105</v>
       </c>
@@ -12431,7 +11306,7 @@
         <v>189</v>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
@@ -12450,7 +11325,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>106</v>
       </c>
@@ -12467,7 +11342,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109" t="s">
         <v>167</v>
@@ -12483,7 +11358,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>107</v>
       </c>
@@ -12500,7 +11375,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110" t="s">
         <v>167</v>
@@ -12516,7 +11391,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>108</v>
       </c>
@@ -12533,7 +11408,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111" t="s">
         <v>167</v>
@@ -12549,7 +11424,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>109</v>
       </c>
@@ -12563,7 +11438,7 @@
         <v>178</v>
       </c>
       <c r="E112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
@@ -12582,7 +11457,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>110</v>
       </c>
@@ -12596,7 +11471,7 @@
         <v>178</v>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
@@ -12618,7 +11493,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>111</v>
       </c>
@@ -12632,7 +11507,7 @@
         <v>189</v>
       </c>
       <c r="E114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
@@ -12651,7 +11526,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>112</v>
       </c>
@@ -12665,7 +11540,7 @@
         <v>189</v>
       </c>
       <c r="E115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
@@ -12684,7 +11559,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>113</v>
       </c>
@@ -12717,7 +11592,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>114</v>
       </c>
@@ -12731,7 +11606,7 @@
         <v>189</v>
       </c>
       <c r="E117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
@@ -12750,7 +11625,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>115</v>
       </c>
@@ -12764,7 +11639,7 @@
         <v>189</v>
       </c>
       <c r="E118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
@@ -12783,7 +11658,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>116</v>
       </c>
@@ -12816,7 +11691,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>117</v>
       </c>
@@ -12833,7 +11708,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" t="s">
         <v>383</v>
@@ -12846,10 +11721,10 @@
       </c>
       <c r="J120" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Common Metric Name]],Table2[],2)</f>
-        <v>Fairness</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Fidelity</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>118</v>
       </c>
@@ -12866,7 +11741,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121" t="s">
         <v>167</v>
@@ -12882,7 +11757,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>119</v>
       </c>
@@ -12899,7 +11774,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122" t="s">
         <v>167</v>
@@ -12915,7 +11790,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>120</v>
       </c>
@@ -12932,7 +11807,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123" t="s">
         <v>167</v>
@@ -12948,7 +11823,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>121</v>
       </c>
@@ -12965,7 +11840,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" t="s">
         <v>167</v>
@@ -12981,7 +11856,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>122</v>
       </c>
@@ -12995,7 +11870,7 @@
         <v>189</v>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="b">
         <v>0</v>
@@ -13014,7 +11889,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>123</v>
       </c>
@@ -13031,7 +11906,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126" t="s">
         <v>167</v>
@@ -13047,7 +11922,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>124</v>
       </c>
@@ -13064,7 +11939,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127" t="s">
         <v>208</v>
@@ -13080,7 +11955,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>125</v>
       </c>
@@ -13097,7 +11972,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" t="s">
         <v>209</v>
@@ -13113,7 +11988,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>126</v>
       </c>
@@ -13130,7 +12005,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" t="s">
         <v>209</v>
@@ -13146,7 +12021,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>127</v>
       </c>
@@ -13163,7 +12038,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130" t="s">
         <v>209</v>
@@ -13179,7 +12054,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>128</v>
       </c>
@@ -13193,7 +12068,7 @@
         <v>189</v>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
@@ -13212,7 +12087,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>129</v>
       </c>
@@ -13226,7 +12101,7 @@
         <v>189</v>
       </c>
       <c r="E132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" t="b">
         <v>0</v>
@@ -13245,7 +12120,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>130</v>
       </c>
@@ -13259,7 +12134,7 @@
         <v>189</v>
       </c>
       <c r="E133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="b">
         <v>0</v>
@@ -13278,7 +12153,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>131</v>
       </c>
@@ -13292,7 +12167,7 @@
         <v>189</v>
       </c>
       <c r="E134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="b">
         <v>0</v>
@@ -13311,7 +12186,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>132</v>
       </c>
@@ -13325,7 +12200,7 @@
         <v>189</v>
       </c>
       <c r="E135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="b">
         <v>0</v>
@@ -13344,7 +12219,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>133</v>
       </c>
@@ -13358,7 +12233,7 @@
         <v>189</v>
       </c>
       <c r="E136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="b">
         <v>0</v>
@@ -13377,7 +12252,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>134</v>
       </c>
@@ -13391,7 +12266,7 @@
         <v>189</v>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="b">
         <v>0</v>
@@ -13410,7 +12285,7 @@
         <v>Generalization</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>135</v>
       </c>
@@ -13424,7 +12299,7 @@
         <v>189</v>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="b">
         <v>0</v>
@@ -13443,7 +12318,7 @@
         <v>Efficiency</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>136</v>
       </c>
@@ -13457,7 +12332,7 @@
         <v>178</v>
       </c>
       <c r="E139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="b">
         <v>0</v>
@@ -13476,7 +12351,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>137</v>
       </c>
@@ -13490,7 +12365,7 @@
         <v>178</v>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="b">
         <v>0</v>
@@ -13509,7 +12384,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>138</v>
       </c>
@@ -13523,7 +12398,7 @@
         <v>178</v>
       </c>
       <c r="E141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="b">
         <v>0</v>
@@ -13542,7 +12417,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>139</v>
       </c>
@@ -13556,7 +12431,7 @@
         <v>178</v>
       </c>
       <c r="E142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
@@ -13575,7 +12450,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>140</v>
       </c>
@@ -13589,7 +12464,7 @@
         <v>178</v>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="b">
         <v>0</v>
@@ -13608,7 +12483,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>141</v>
       </c>
@@ -13625,7 +12500,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G144" t="s">
         <v>167</v>
@@ -13641,7 +12516,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>142</v>
       </c>
@@ -13655,7 +12530,7 @@
         <v>178</v>
       </c>
       <c r="E145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="b">
         <v>0</v>
@@ -13674,7 +12549,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>143</v>
       </c>
@@ -13688,7 +12563,7 @@
         <v>178</v>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="b">
         <v>0</v>
@@ -13707,7 +12582,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>144</v>
       </c>
@@ -13721,7 +12596,7 @@
         <v>178</v>
       </c>
       <c r="E147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147" t="b">
         <v>0</v>
@@ -13740,7 +12615,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>145</v>
       </c>
@@ -13754,7 +12629,7 @@
         <v>178</v>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="b">
         <v>0</v>
@@ -13773,7 +12648,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>146</v>
       </c>
@@ -13787,7 +12662,7 @@
         <v>178</v>
       </c>
       <c r="E149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="b">
         <v>0</v>
@@ -13806,7 +12681,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>147</v>
       </c>
@@ -13820,7 +12695,7 @@
         <v>178</v>
       </c>
       <c r="E150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="b">
         <v>0</v>
@@ -13839,7 +12714,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>148</v>
       </c>
@@ -13853,7 +12728,7 @@
         <v>178</v>
       </c>
       <c r="E151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="b">
         <v>0</v>
@@ -13872,7 +12747,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>149</v>
       </c>
@@ -13886,7 +12761,7 @@
         <v>189</v>
       </c>
       <c r="E152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" t="b">
         <v>0</v>
@@ -13905,7 +12780,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>150</v>
       </c>
@@ -13938,7 +12813,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>151</v>
       </c>
@@ -13955,7 +12830,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G154" t="s">
         <v>167</v>
@@ -13971,7 +12846,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>152</v>
       </c>
@@ -13985,7 +12860,7 @@
         <v>189</v>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="b">
         <v>0</v>
@@ -14004,7 +12879,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>153</v>
       </c>
@@ -14018,7 +12893,7 @@
         <v>189</v>
       </c>
       <c r="E156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="b">
         <v>0</v>
@@ -14037,7 +12912,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>154</v>
       </c>
@@ -14051,7 +12926,7 @@
         <v>189</v>
       </c>
       <c r="E157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157" t="b">
         <v>0</v>
@@ -14070,7 +12945,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>155</v>
       </c>
@@ -14084,7 +12959,7 @@
         <v>189</v>
       </c>
       <c r="E158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158" t="b">
         <v>0</v>
@@ -14103,7 +12978,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>156</v>
       </c>
@@ -14136,7 +13011,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>157</v>
       </c>
@@ -14150,7 +13025,7 @@
         <v>178</v>
       </c>
       <c r="E160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160" t="b">
         <v>0</v>
@@ -14169,7 +13044,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>158</v>
       </c>
@@ -14183,7 +13058,7 @@
         <v>178</v>
       </c>
       <c r="E161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="b">
         <v>0</v>
@@ -14202,7 +13077,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>159</v>
       </c>
@@ -14219,7 +13094,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G162" t="s">
         <v>383</v>
@@ -14232,10 +13107,10 @@
       </c>
       <c r="J162" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Common Metric Name]],Table2[],2)</f>
-        <v>Fairness</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Fidelity</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>160</v>
       </c>
@@ -14249,7 +13124,7 @@
         <v>178</v>
       </c>
       <c r="E163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163" t="b">
         <v>0</v>
@@ -14268,7 +13143,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>161</v>
       </c>
@@ -14282,7 +13157,7 @@
         <v>178</v>
       </c>
       <c r="E164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164" t="b">
         <v>0</v>
@@ -14301,7 +13176,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>162</v>
       </c>
@@ -14318,7 +13193,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G165" t="s">
         <v>383</v>
@@ -14331,10 +13206,10 @@
       </c>
       <c r="J165" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Common Metric Name]],Table2[],2)</f>
-        <v>Fairness</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Fidelity</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>163</v>
       </c>
@@ -14351,7 +13226,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166" t="s">
         <v>167</v>
@@ -14367,7 +13242,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>164</v>
       </c>
@@ -14381,7 +13256,7 @@
         <v>178</v>
       </c>
       <c r="E167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167" t="b">
         <v>0</v>
@@ -14400,7 +13275,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>165</v>
       </c>
@@ -14414,7 +13289,7 @@
         <v>178</v>
       </c>
       <c r="E168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168" t="b">
         <v>0</v>
@@ -14433,7 +13308,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>166</v>
       </c>
@@ -14450,7 +13325,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169" t="s">
         <v>383</v>
@@ -14463,10 +13338,10 @@
       </c>
       <c r="J169" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Common Metric Name]],Table2[],2)</f>
-        <v>Fairness</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Fidelity</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>167</v>
       </c>
@@ -14483,7 +13358,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G170" t="s">
         <v>167</v>
@@ -14502,7 +13377,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>168</v>
       </c>
@@ -14516,10 +13391,10 @@
         <v>249</v>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G171" t="s">
         <v>312</v>
@@ -14535,7 +13410,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>169</v>
       </c>
@@ -14568,7 +13443,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>170</v>
       </c>
@@ -14601,7 +13476,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>171</v>
       </c>
@@ -14637,7 +13512,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>172</v>
       </c>
@@ -14651,10 +13526,10 @@
         <v>249</v>
       </c>
       <c r="E175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G175" t="s">
         <v>167</v>
@@ -14670,7 +13545,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>173</v>
       </c>
@@ -14684,10 +13559,10 @@
         <v>249</v>
       </c>
       <c r="E176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G176" t="s">
         <v>167</v>
@@ -14703,7 +13578,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>174</v>
       </c>
@@ -14717,10 +13592,10 @@
         <v>249</v>
       </c>
       <c r="E177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177" t="s">
         <v>167</v>
@@ -14736,7 +13611,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>175</v>
       </c>
@@ -14750,7 +13625,7 @@
         <v>178</v>
       </c>
       <c r="E178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178" t="b">
         <v>0</v>
@@ -14769,7 +13644,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>176</v>
       </c>
@@ -14786,7 +13661,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G179" t="s">
         <v>383</v>
@@ -14799,10 +13674,10 @@
       </c>
       <c r="J179" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Common Metric Name]],Table2[],2)</f>
-        <v>Fairness</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+        <v>Fidelity</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>177</v>
       </c>
@@ -14819,7 +13694,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G180" t="s">
         <v>167</v>
@@ -14835,7 +13710,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>178</v>
       </c>
@@ -14852,7 +13727,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G181" t="s">
         <v>167</v>
@@ -14868,7 +13743,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>179</v>
       </c>
@@ -14885,7 +13760,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G182" t="s">
         <v>167</v>
@@ -14901,7 +13776,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>180</v>
       </c>
@@ -14918,7 +13793,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G183" t="s">
         <v>167</v>
@@ -14934,7 +13809,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>181</v>
       </c>
@@ -14948,7 +13823,7 @@
         <v>178</v>
       </c>
       <c r="E184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184" t="b">
         <v>0</v>
@@ -14967,7 +13842,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>182</v>
       </c>
@@ -14981,7 +13856,7 @@
         <v>178</v>
       </c>
       <c r="E185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185" t="b">
         <v>0</v>
@@ -15000,7 +13875,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>183</v>
       </c>
@@ -15033,7 +13908,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>184</v>
       </c>
@@ -15047,7 +13922,7 @@
         <v>178</v>
       </c>
       <c r="E187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187" t="b">
         <v>0</v>
@@ -15066,7 +13941,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>185</v>
       </c>
@@ -15080,7 +13955,7 @@
         <v>178</v>
       </c>
       <c r="E188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188" t="b">
         <v>0</v>
@@ -15099,7 +13974,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>186</v>
       </c>
@@ -15113,10 +13988,10 @@
         <v>178</v>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G189" t="s">
         <v>133</v>
@@ -15132,7 +14007,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>187</v>
       </c>
@@ -15165,7 +14040,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>188</v>
       </c>
@@ -15179,7 +14054,7 @@
         <v>178</v>
       </c>
       <c r="E191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191" t="b">
         <v>0</v>
@@ -15198,7 +14073,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>189</v>
       </c>
@@ -15212,7 +14087,7 @@
         <v>178</v>
       </c>
       <c r="E192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="b">
         <v>0</v>
@@ -15231,7 +14106,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>190</v>
       </c>
@@ -15245,7 +14120,7 @@
         <v>178</v>
       </c>
       <c r="E193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193" t="b">
         <v>0</v>
@@ -15264,7 +14139,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>191</v>
       </c>
@@ -15278,7 +14153,7 @@
         <v>178</v>
       </c>
       <c r="E194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194" t="b">
         <v>0</v>
@@ -15297,7 +14172,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>192</v>
       </c>
@@ -15311,7 +14186,7 @@
         <v>178</v>
       </c>
       <c r="E195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195" t="b">
         <v>0</v>
@@ -15330,7 +14205,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>193</v>
       </c>
@@ -15347,7 +14222,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G196" t="s">
         <v>167</v>
@@ -15366,7 +14241,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>194</v>
       </c>
@@ -15383,7 +14258,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G197" t="s">
         <v>167</v>
@@ -15399,7 +14274,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>195</v>
       </c>
@@ -15416,7 +14291,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G198" t="s">
         <v>167</v>
@@ -15432,7 +14307,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>196</v>
       </c>
@@ -15446,7 +14321,7 @@
         <v>189</v>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="b">
         <v>0</v>
@@ -15465,7 +14340,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>197</v>
       </c>
@@ -15479,7 +14354,7 @@
         <v>189</v>
       </c>
       <c r="E200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200" t="b">
         <v>0</v>
@@ -15498,7 +14373,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>198</v>
       </c>
@@ -15512,7 +14387,7 @@
         <v>189</v>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="b">
         <v>0</v>
@@ -15531,7 +14406,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>199</v>
       </c>
@@ -15545,7 +14420,7 @@
         <v>189</v>
       </c>
       <c r="E202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202" t="b">
         <v>0</v>
@@ -15564,7 +14439,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>200</v>
       </c>
@@ -15578,7 +14453,7 @@
         <v>189</v>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="b">
         <v>0</v>
@@ -15597,7 +14472,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>201</v>
       </c>
@@ -15611,7 +14486,7 @@
         <v>189</v>
       </c>
       <c r="E204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204" t="b">
         <v>0</v>
@@ -15630,7 +14505,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>202</v>
       </c>
@@ -15644,7 +14519,7 @@
         <v>189</v>
       </c>
       <c r="E205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205" t="b">
         <v>0</v>
@@ -15663,7 +14538,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>203</v>
       </c>
@@ -15680,7 +14555,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G206" t="s">
         <v>167</v>
@@ -15696,7 +14571,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>204</v>
       </c>
@@ -15713,7 +14588,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G207" t="s">
         <v>383</v>
@@ -15726,10 +14601,10 @@
       </c>
       <c r="J207" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Common Metric Name]],Table2[],2)</f>
-        <v>Fairness</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Fidelity</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>205</v>
       </c>
@@ -15746,7 +14621,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G208" t="s">
         <v>167</v>
@@ -15762,7 +14637,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>206</v>
       </c>
@@ -15779,7 +14654,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G209" t="s">
         <v>167</v>
@@ -15795,7 +14670,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>207</v>
       </c>
@@ -15809,7 +14684,7 @@
         <v>189</v>
       </c>
       <c r="E210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" t="b">
         <v>0</v>
@@ -15828,7 +14703,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>208</v>
       </c>
@@ -15842,7 +14717,7 @@
         <v>189</v>
       </c>
       <c r="E211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211" t="b">
         <v>0</v>
@@ -15861,7 +14736,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>209</v>
       </c>
@@ -15875,7 +14750,7 @@
         <v>189</v>
       </c>
       <c r="E212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212" t="b">
         <v>0</v>
@@ -15894,7 +14769,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>210</v>
       </c>
@@ -15908,7 +14783,7 @@
         <v>189</v>
       </c>
       <c r="E213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213" t="b">
         <v>0</v>
@@ -15927,7 +14802,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>211</v>
       </c>
@@ -15941,7 +14816,7 @@
         <v>189</v>
       </c>
       <c r="E214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214" t="b">
         <v>0</v>
@@ -15960,7 +14835,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>212</v>
       </c>
@@ -15993,7 +14868,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>213</v>
       </c>
@@ -16007,7 +14882,7 @@
         <v>189</v>
       </c>
       <c r="E216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216" t="b">
         <v>0</v>
@@ -16026,7 +14901,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>214</v>
       </c>
@@ -16040,7 +14915,7 @@
         <v>189</v>
       </c>
       <c r="E217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217" t="b">
         <v>0</v>
@@ -16059,7 +14934,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>215</v>
       </c>
@@ -16073,7 +14948,7 @@
         <v>189</v>
       </c>
       <c r="E218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218" t="b">
         <v>0</v>
@@ -16092,7 +14967,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>216</v>
       </c>
@@ -16106,7 +14981,7 @@
         <v>178</v>
       </c>
       <c r="E219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219" t="b">
         <v>0</v>
@@ -16125,7 +15000,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>217</v>
       </c>
@@ -16139,7 +15014,7 @@
         <v>178</v>
       </c>
       <c r="E220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220" t="b">
         <v>0</v>
@@ -16158,7 +15033,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>218</v>
       </c>
@@ -16175,7 +15050,7 @@
         <v>1</v>
       </c>
       <c r="F221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G221" t="s">
         <v>167</v>
@@ -16191,7 +15066,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>219</v>
       </c>
@@ -16208,7 +15083,7 @@
         <v>1</v>
       </c>
       <c r="F222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G222" t="s">
         <v>209</v>
@@ -16224,7 +15099,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>220</v>
       </c>
@@ -16241,7 +15116,7 @@
         <v>1</v>
       </c>
       <c r="F223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G223" t="s">
         <v>167</v>
@@ -16257,7 +15132,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>221</v>
       </c>
@@ -16274,7 +15149,7 @@
         <v>1</v>
       </c>
       <c r="F224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G224" t="s">
         <v>209</v>
@@ -16290,7 +15165,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>222</v>
       </c>
@@ -16304,7 +15179,7 @@
         <v>178</v>
       </c>
       <c r="E225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225" t="b">
         <v>0</v>
@@ -16323,7 +15198,7 @@
         <v>Efficiency</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>223</v>
       </c>
@@ -16340,7 +15215,7 @@
         <v>1</v>
       </c>
       <c r="F226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G226" t="s">
         <v>383</v>
@@ -16353,10 +15228,10 @@
       </c>
       <c r="J226" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Common Metric Name]],Table2[],2)</f>
-        <v>Fairness</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Fidelity</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>224</v>
       </c>
@@ -16373,7 +15248,7 @@
         <v>1</v>
       </c>
       <c r="F227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G227" t="s">
         <v>167</v>
@@ -16392,7 +15267,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>225</v>
       </c>
@@ -16406,7 +15281,7 @@
         <v>178</v>
       </c>
       <c r="E228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228" t="b">
         <v>0</v>
@@ -16620,7 +15495,7 @@
       </c>
       <c r="J234" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Common Metric Name]],Table2[],2)</f>
-        <v>Fairness</v>
+        <v>Fidelity</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
@@ -16692,7 +15567,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>234</v>
       </c>
@@ -16706,7 +15581,7 @@
         <v>178</v>
       </c>
       <c r="E237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237" t="b">
         <v>0</v>
@@ -16725,7 +15600,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>235</v>
       </c>
@@ -16739,7 +15614,7 @@
         <v>178</v>
       </c>
       <c r="E238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238" t="b">
         <v>0</v>
@@ -16758,7 +15633,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>236</v>
       </c>
@@ -16791,7 +15666,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>237</v>
       </c>
@@ -16805,7 +15680,7 @@
         <v>178</v>
       </c>
       <c r="E240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240" t="b">
         <v>0</v>
@@ -16824,7 +15699,7 @@
         <v>Efficiency</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>238</v>
       </c>
@@ -16838,7 +15713,7 @@
         <v>178</v>
       </c>
       <c r="E241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241" t="b">
         <v>0</v>
@@ -16857,7 +15732,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>239</v>
       </c>
@@ -16871,7 +15746,7 @@
         <v>178</v>
       </c>
       <c r="E242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F242" t="b">
         <v>0</v>
@@ -16890,7 +15765,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>240</v>
       </c>
@@ -16923,7 +15798,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>241</v>
       </c>
@@ -16956,7 +15831,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>242</v>
       </c>
@@ -16989,7 +15864,7 @@
         <v>Validity</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>243</v>
       </c>
@@ -17022,7 +15897,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>244</v>
       </c>
@@ -17055,7 +15930,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>245</v>
       </c>
@@ -17088,7 +15963,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>246</v>
       </c>
@@ -17102,7 +15977,7 @@
         <v>178</v>
       </c>
       <c r="E249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249" t="b">
         <v>0</v>
@@ -17121,7 +15996,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>247</v>
       </c>
@@ -17135,7 +16010,7 @@
         <v>178</v>
       </c>
       <c r="E250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F250" t="b">
         <v>0</v>
@@ -17154,7 +16029,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>248</v>
       </c>
@@ -17168,7 +16043,7 @@
         <v>178</v>
       </c>
       <c r="E251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251" t="b">
         <v>0</v>
@@ -17187,7 +16062,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>249</v>
       </c>
@@ -17201,7 +16076,7 @@
         <v>178</v>
       </c>
       <c r="E252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252" t="b">
         <v>0</v>
@@ -17220,7 +16095,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>250</v>
       </c>
@@ -17234,7 +16109,7 @@
         <v>178</v>
       </c>
       <c r="E253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253" t="b">
         <v>0</v>
@@ -17256,7 +16131,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>251</v>
       </c>
@@ -17270,7 +16145,7 @@
         <v>178</v>
       </c>
       <c r="E254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254" t="b">
         <v>0</v>
@@ -17289,7 +16164,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>252</v>
       </c>
@@ -17303,7 +16178,7 @@
         <v>178</v>
       </c>
       <c r="E255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255" t="b">
         <v>0</v>
@@ -17322,7 +16197,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>253</v>
       </c>
@@ -17336,7 +16211,7 @@
         <v>178</v>
       </c>
       <c r="E256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256" t="b">
         <v>0</v>
@@ -17355,7 +16230,7 @@
         <v>Efficiency</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>254</v>
       </c>
@@ -17369,7 +16244,7 @@
         <v>178</v>
       </c>
       <c r="E257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257" t="b">
         <v>0</v>
@@ -17388,7 +16263,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>255</v>
       </c>
@@ -17402,7 +16277,7 @@
         <v>178</v>
       </c>
       <c r="E258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F258" t="b">
         <v>0</v>
@@ -17421,7 +16296,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>256</v>
       </c>
@@ -17438,7 +16313,7 @@
         <v>1</v>
       </c>
       <c r="F259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G259" t="s">
         <v>383</v>
@@ -17451,10 +16326,10 @@
       </c>
       <c r="J259" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Common Metric Name]],Table2[],2)</f>
-        <v>Fairness</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+        <v>Fidelity</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>257</v>
       </c>
@@ -17471,7 +16346,7 @@
         <v>1</v>
       </c>
       <c r="F260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G260" t="s">
         <v>167</v>
@@ -17487,7 +16362,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>258</v>
       </c>
@@ -17501,7 +16376,7 @@
         <v>178</v>
       </c>
       <c r="E261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F261" t="b">
         <v>0</v>
@@ -17520,7 +16395,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>259</v>
       </c>
@@ -17553,7 +16428,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>260</v>
       </c>
@@ -17567,7 +16442,7 @@
         <v>189</v>
       </c>
       <c r="E263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F263" t="b">
         <v>0</v>
@@ -17586,7 +16461,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>261</v>
       </c>
@@ -17600,7 +16475,7 @@
         <v>189</v>
       </c>
       <c r="E264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F264" t="b">
         <v>0</v>
@@ -17619,7 +16494,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>262</v>
       </c>
@@ -17633,7 +16508,7 @@
         <v>189</v>
       </c>
       <c r="E265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F265" t="b">
         <v>0</v>
@@ -17652,7 +16527,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>263</v>
       </c>
@@ -17666,7 +16541,7 @@
         <v>189</v>
       </c>
       <c r="E266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F266" t="b">
         <v>0</v>
@@ -17685,7 +16560,7 @@
         <v>Privacy</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>264</v>
       </c>
@@ -17699,7 +16574,7 @@
         <v>189</v>
       </c>
       <c r="E267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F267" t="b">
         <v>0</v>
@@ -17718,7 +16593,7 @@
         <v>Efficiency</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>265</v>
       </c>
@@ -17732,7 +16607,7 @@
         <v>178</v>
       </c>
       <c r="E268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F268" t="b">
         <v>0</v>
@@ -17751,7 +16626,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>266</v>
       </c>
@@ -17784,7 +16659,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>267</v>
       </c>
@@ -17798,7 +16673,7 @@
         <v>178</v>
       </c>
       <c r="E270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F270" t="b">
         <v>0</v>
@@ -17817,7 +16692,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>268</v>
       </c>
@@ -17834,7 +16709,7 @@
         <v>1</v>
       </c>
       <c r="F271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G271" t="s">
         <v>167</v>
@@ -17850,7 +16725,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>269</v>
       </c>
@@ -17864,7 +16739,7 @@
         <v>178</v>
       </c>
       <c r="E272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F272" t="b">
         <v>0</v>
@@ -17883,7 +16758,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>270</v>
       </c>
@@ -17897,7 +16772,7 @@
         <v>178</v>
       </c>
       <c r="E273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F273" t="b">
         <v>0</v>
@@ -17916,7 +16791,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>271</v>
       </c>
@@ -17930,7 +16805,7 @@
         <v>178</v>
       </c>
       <c r="E274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F274" t="b">
         <v>0</v>
@@ -17949,7 +16824,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>272</v>
       </c>
@@ -17966,7 +16841,7 @@
         <v>1</v>
       </c>
       <c r="F275" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G275" t="s">
         <v>383</v>
@@ -17979,10 +16854,10 @@
       </c>
       <c r="J275" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Common Metric Name]],Table2[],2)</f>
-        <v>Fairness</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Fidelity</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>273</v>
       </c>
@@ -17999,7 +16874,7 @@
         <v>1</v>
       </c>
       <c r="F276" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G276" t="s">
         <v>312</v>
@@ -18015,7 +16890,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>274</v>
       </c>
@@ -18032,7 +16907,7 @@
         <v>1</v>
       </c>
       <c r="F277" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G277" t="s">
         <v>312</v>
@@ -18048,7 +16923,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>275</v>
       </c>
@@ -18065,7 +16940,7 @@
         <v>1</v>
       </c>
       <c r="F278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G278" t="s">
         <v>312</v>
@@ -18081,7 +16956,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>276</v>
       </c>
@@ -18095,7 +16970,7 @@
         <v>178</v>
       </c>
       <c r="E279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F279" t="b">
         <v>0</v>
@@ -18117,7 +16992,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>277</v>
       </c>
@@ -18131,7 +17006,7 @@
         <v>178</v>
       </c>
       <c r="E280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F280" t="b">
         <v>0</v>
@@ -18153,7 +17028,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>278</v>
       </c>
@@ -18170,7 +17045,7 @@
         <v>1</v>
       </c>
       <c r="F281" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G281" t="s">
         <v>383</v>
@@ -18183,10 +17058,10 @@
       </c>
       <c r="J281" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Common Metric Name]],Table2[],2)</f>
-        <v>Fairness</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Fidelity</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>279</v>
       </c>
@@ -18200,7 +17075,7 @@
         <v>178</v>
       </c>
       <c r="E282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F282" t="b">
         <v>0</v>
@@ -18219,7 +17094,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>280</v>
       </c>
@@ -18233,7 +17108,7 @@
         <v>178</v>
       </c>
       <c r="E283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F283" t="b">
         <v>0</v>
@@ -18252,7 +17127,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>281</v>
       </c>
@@ -18285,7 +17160,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>282</v>
       </c>
@@ -18299,7 +17174,7 @@
         <v>178</v>
       </c>
       <c r="E285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F285" t="b">
         <v>0</v>
@@ -18318,7 +17193,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>283</v>
       </c>
@@ -18335,7 +17210,7 @@
         <v>1</v>
       </c>
       <c r="F286" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G286" t="s">
         <v>167</v>
@@ -18351,7 +17226,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>284</v>
       </c>
@@ -18368,7 +17243,7 @@
         <v>1</v>
       </c>
       <c r="F287" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G287" t="s">
         <v>312</v>
@@ -18384,7 +17259,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>285</v>
       </c>
@@ -18398,7 +17273,7 @@
         <v>178</v>
       </c>
       <c r="E288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F288" t="b">
         <v>0</v>
@@ -18417,7 +17292,7 @@
         <v>Privacy</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>286</v>
       </c>
@@ -18431,7 +17306,7 @@
         <v>178</v>
       </c>
       <c r="E289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F289" t="b">
         <v>0</v>
@@ -18453,7 +17328,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>287</v>
       </c>
@@ -18486,7 +17361,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>288</v>
       </c>
@@ -18500,7 +17375,7 @@
         <v>189</v>
       </c>
       <c r="E291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F291" t="b">
         <v>0</v>
@@ -18519,7 +17394,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>289</v>
       </c>
@@ -18536,7 +17411,7 @@
         <v>1</v>
       </c>
       <c r="F292" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G292" t="s">
         <v>167</v>
@@ -18552,7 +17427,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>290</v>
       </c>
@@ -18569,7 +17444,7 @@
         <v>1</v>
       </c>
       <c r="F293" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G293" t="s">
         <v>167</v>
@@ -18585,7 +17460,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>291</v>
       </c>
@@ -18599,7 +17474,7 @@
         <v>189</v>
       </c>
       <c r="E294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F294" t="b">
         <v>0</v>
@@ -18618,7 +17493,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>292</v>
       </c>
@@ -18632,7 +17507,7 @@
         <v>189</v>
       </c>
       <c r="E295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F295" t="b">
         <v>0</v>
@@ -18651,7 +17526,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>293</v>
       </c>
@@ -18684,7 +17559,7 @@
         <v>Validity</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>294</v>
       </c>
@@ -18698,7 +17573,7 @@
         <v>189</v>
       </c>
       <c r="E297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F297" t="b">
         <v>0</v>
@@ -18717,7 +17592,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>295</v>
       </c>
@@ -18750,7 +17625,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -18783,7 +17658,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -18800,7 +17675,7 @@
         <v>1</v>
       </c>
       <c r="F300" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G300" t="s">
         <v>167</v>
@@ -18816,7 +17691,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -18830,7 +17705,7 @@
         <v>189</v>
       </c>
       <c r="E301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F301" t="b">
         <v>0</v>
@@ -18849,7 +17724,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -18863,7 +17738,7 @@
         <v>189</v>
       </c>
       <c r="E302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F302" t="b">
         <v>0</v>
@@ -18882,7 +17757,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -18899,7 +17774,7 @@
         <v>1</v>
       </c>
       <c r="F303" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G303" t="s">
         <v>383</v>
@@ -18912,13 +17787,13 @@
       </c>
       <c r="J303" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Common Metric Name]],Table2[],2)</f>
-        <v>Fairness</v>
+        <v>Fidelity</v>
       </c>
       <c r="K303" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -18932,7 +17807,7 @@
         <v>178</v>
       </c>
       <c r="E304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F304" t="b">
         <v>0</v>
@@ -18951,7 +17826,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -18965,7 +17840,7 @@
         <v>178</v>
       </c>
       <c r="E305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F305" t="b">
         <v>0</v>
@@ -18987,7 +17862,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -19001,7 +17876,7 @@
         <v>178</v>
       </c>
       <c r="E306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F306" t="b">
         <v>0</v>
@@ -19023,7 +17898,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -19037,7 +17912,7 @@
         <v>178</v>
       </c>
       <c r="E307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F307" t="b">
         <v>0</v>
@@ -19059,7 +17934,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -19092,7 +17967,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -19106,7 +17981,7 @@
         <v>178</v>
       </c>
       <c r="E309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F309" t="b">
         <v>0</v>
@@ -19125,7 +18000,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -19139,7 +18014,7 @@
         <v>178</v>
       </c>
       <c r="E310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F310" t="b">
         <v>0</v>
@@ -19158,7 +18033,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -19172,7 +18047,7 @@
         <v>178</v>
       </c>
       <c r="E311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F311" t="b">
         <v>0</v>
@@ -19191,7 +18066,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -19205,7 +18080,7 @@
         <v>178</v>
       </c>
       <c r="E312" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F312" t="b">
         <v>0</v>
@@ -19224,7 +18099,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -19238,7 +18113,7 @@
         <v>178</v>
       </c>
       <c r="E313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F313" t="b">
         <v>0</v>
@@ -19257,7 +18132,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -19274,7 +18149,7 @@
         <v>1</v>
       </c>
       <c r="F314" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G314" t="s">
         <v>167</v>
@@ -19304,10 +18179,10 @@
         <v>73</v>
       </c>
       <c r="E315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G315" t="s">
         <v>349</v>
@@ -19326,7 +18201,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -19340,7 +18215,7 @@
         <v>178</v>
       </c>
       <c r="E316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F316" t="b">
         <v>0</v>
@@ -19359,7 +18234,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -19376,7 +18251,7 @@
         <v>1</v>
       </c>
       <c r="F317" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G317" t="s">
         <v>167</v>
@@ -19392,7 +18267,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -19409,7 +18284,7 @@
         <v>1</v>
       </c>
       <c r="F318" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G318" t="s">
         <v>167</v>
@@ -19425,7 +18300,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -19439,7 +18314,7 @@
         <v>178</v>
       </c>
       <c r="E319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F319" t="b">
         <v>0</v>
@@ -19458,7 +18333,7 @@
         <v>Privacy</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -19472,7 +18347,7 @@
         <v>178</v>
       </c>
       <c r="E320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F320" t="b">
         <v>0</v>
@@ -19491,7 +18366,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -19508,7 +18383,7 @@
         <v>1</v>
       </c>
       <c r="F321" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G321" t="s">
         <v>167</v>
@@ -19524,7 +18399,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -19541,7 +18416,7 @@
         <v>1</v>
       </c>
       <c r="F322" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G322" t="s">
         <v>167</v>
@@ -19557,7 +18432,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -19571,7 +18446,7 @@
         <v>178</v>
       </c>
       <c r="E323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F323" t="b">
         <v>0</v>
@@ -19590,7 +18465,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -19607,7 +18482,7 @@
         <v>1</v>
       </c>
       <c r="F324" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G324" t="s">
         <v>383</v>
@@ -19620,10 +18495,10 @@
       </c>
       <c r="J324" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Common Metric Name]],Table2[],2)</f>
-        <v>Fairness</v>
-      </c>
-    </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
+        <v>Fidelity</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -19640,7 +18515,7 @@
         <v>1</v>
       </c>
       <c r="F325" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G325" t="s">
         <v>167</v>
@@ -19656,7 +18531,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -19689,7 +18564,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -19722,7 +18597,7 @@
         <v>Fidelity</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -19755,7 +18630,7 @@
         <v>Privacy</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -19769,10 +18644,10 @@
         <v>249</v>
       </c>
       <c r="E329" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F329" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G329" t="s">
         <v>167</v>
@@ -19788,7 +18663,7 @@
         <v>Utility</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -19840,8 +18715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63741185-4413-2E44-95E7-492736F9D0ED}">
   <dimension ref="A1:B108"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection sqref="A1:B108"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20207,7 +19082,7 @@
         <v>383</v>
       </c>
       <c r="B45" t="s">
-        <v>422</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
